--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27590.81648737699</v>
+        <v>18192.46634604872</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12582092.0112902</v>
+        <v>12582215.32155234</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3424352.131779877</v>
+        <v>3424335.94694564</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.021643902788007</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.536891551628983</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.49488714450009</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>13.21156971506333</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.201960398177218</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.201960398177242</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -782,22 +782,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.504190801070983</v>
+        <v>1.504190801070976</v>
       </c>
       <c r="R3" t="n">
-        <v>13.34053384443212</v>
+        <v>13.34053384443211</v>
       </c>
       <c r="S3" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="T3" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.5891238419305925</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5891238419305853</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="C5" t="n">
-        <v>18.21830727030009</v>
+        <v>16.04668504368034</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>16.04668504368032</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="H6" t="n">
-        <v>11.15822662489535</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.888458418784966</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.504190801070976</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>13.34053384443211</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.201960398177256</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.5891238419305923</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5891238419305853</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.50923875973925</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>23.50971295904439</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>23.50971295904439</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>21.70782937363143</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.027774177190942</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>19.99031113423589</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>23.50971295904439</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.50971295904439</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="G9" t="n">
-        <v>23.50971295904439</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>10.67035361428236</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10.03700156004394</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>21.01808531142683</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.479784596074249</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.183833028195936</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>88.09368046800151</v>
       </c>
       <c r="E11" t="n">
-        <v>77.59291375621572</v>
+        <v>77.59291375621569</v>
       </c>
       <c r="F11" t="n">
-        <v>88.09368046800149</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>88.09368046800149</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>88.09368046800149</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>88.09368046800151</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>88.09368046800151</v>
       </c>
     </row>
     <row r="12">
@@ -1451,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>88.09368046800149</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>88.09368046800149</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>88.09368046800149</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>12.8837153427044</v>
+        <v>12.88371534270434</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>88.09368046800151</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>88.09368046800151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>88.09368046800151</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>76.72452921209064</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>76.72452921209064</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>88.09368046800151</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>77.59291375621569</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>88.09368046800151</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>88.09368046800151</v>
       </c>
       <c r="T14" t="n">
-        <v>88.09368046800151</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>77.59291375621569</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>88.09368046800151</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.88371534270434</v>
+        <v>88.09368046800151</v>
       </c>
       <c r="C15" t="n">
         <v>88.09368046800151</v>
@@ -1694,7 +1694,7 @@
         <v>88.09368046800151</v>
       </c>
       <c r="E15" t="n">
-        <v>88.09368046800151</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>12.88371534270434</v>
       </c>
     </row>
     <row r="16">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>380.8921993180109</v>
+        <v>293.6210400657523</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.0762984870881</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.0010086278747</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.5938104456032</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -1934,13 +1934,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
-        <v>37.55859129566444</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>91.92526226042889</v>
+        <v>91.92576466199586</v>
       </c>
       <c r="H18" t="n">
-        <v>41.36902567056268</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>58.44494974266424</v>
+        <v>58.45428163141898</v>
       </c>
       <c r="T18" t="n">
-        <v>135.6727763101777</v>
+        <v>135.674801341055</v>
       </c>
       <c r="U18" t="n">
-        <v>182.8423580798134</v>
+        <v>168.2414023675477</v>
       </c>
       <c r="V18" t="n">
         <v>202.9234074721264</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>108.6623077578879</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>151.0769061989316</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>236.6523070691268</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>92.79591589484721</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>105.8514340651613</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2095,10 +2095,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.0762984870881</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>237.5277355071051</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>52.74965212647632</v>
       </c>
       <c r="T20" t="n">
-        <v>208.9968982185809</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,10 +2174,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>91.92526226042889</v>
+        <v>91.92576466199586</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>41.37387781201202</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.66319469496669</v>
+        <v>2.479415054406647</v>
       </c>
       <c r="T21" t="n">
-        <v>135.6727763101777</v>
+        <v>135.674801341055</v>
       </c>
       <c r="U21" t="n">
-        <v>182.8423580798134</v>
+        <v>182.8423911325481</v>
       </c>
       <c r="V21" t="n">
         <v>202.9234074721264</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>49.97484115674063</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3283021352022</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.734564505125902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,19 +2320,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>28.64968607284269</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T23" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>350.2646431517187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H24" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570794</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>181.8738513036361</v>
       </c>
       <c r="U25" t="n">
-        <v>271.2612705660949</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>353.141364912069</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>284.2383941771366</v>
       </c>
       <c r="H26" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2696,7 +2696,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W27" t="n">
-        <v>194.556163395115</v>
+        <v>194.5561633951149</v>
       </c>
       <c r="X27" t="n">
         <v>161.8425727710037</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>131.2346897866121</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>169.7775958326054</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>102.7135475519859</v>
       </c>
       <c r="G29" t="n">
-        <v>146.9043874343016</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U29" t="n">
         <v>255.5887081042933</v>
@@ -2854,13 +2854,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H30" t="n">
-        <v>41.04430296570791</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T30" t="n">
         <v>135.5372539824022</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>75.11689214270967</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>144.2192796861757</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>127.6343685298732</v>
+        <v>88.34756424803021</v>
       </c>
       <c r="G32" t="n">
         <v>398.012519220714</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>48.6211135017879</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>85.93802506833813</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H35" t="n">
-        <v>245.8669729807112</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>361.6184540038895</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H36" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>57.82042628441735</v>
+        <v>57.82042628441737</v>
       </c>
       <c r="T36" t="n">
         <v>135.5372539824022</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.7775958326054</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>15.59155329680958</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>27.75995949313429</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>41.95582820782027</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>91.8916397460297</v>
+        <v>91.89163974602977</v>
       </c>
       <c r="H39" t="n">
         <v>41.04430296570798</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>20.49439114172012</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5702563680571</v>
+        <v>22.97911050186308</v>
       </c>
       <c r="H40" t="n">
         <v>133.2527378018481</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.012519220714</v>
+        <v>28.64968607284358</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T41" t="n">
-        <v>115.0042494625633</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>91.89163974602971</v>
+        <v>91.89163974602977</v>
       </c>
       <c r="H42" t="n">
         <v>41.04430296570798</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>142.3326284626155</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>191.6384767693285</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>154.0098296459636</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>369.2380905286396</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4143,13 +4143,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>101.8072770298462</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>103.3170071454325</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.509630139995732</v>
+        <v>17.6662373530183</v>
       </c>
       <c r="C2" t="n">
-        <v>4.509630139995732</v>
+        <v>17.6662373530183</v>
       </c>
       <c r="D2" t="n">
-        <v>4.509630139995732</v>
+        <v>17.6662373530183</v>
       </c>
       <c r="E2" t="n">
-        <v>4.509630139995732</v>
+        <v>17.6662373530183</v>
       </c>
       <c r="F2" t="n">
-        <v>4.509630139995732</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="G2" t="n">
-        <v>4.509630139995732</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H2" t="n">
-        <v>4.509630139995732</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I2" t="n">
-        <v>4.509630139995732</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J2" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K2" t="n">
-        <v>5.219099475992264</v>
+        <v>5.219099475992287</v>
       </c>
       <c r="L2" t="n">
-        <v>15.88227649088179</v>
+        <v>15.88227649088184</v>
       </c>
       <c r="M2" t="n">
-        <v>32.89339907886386</v>
+        <v>32.89339907886392</v>
       </c>
       <c r="N2" t="n">
-        <v>50.92952327646096</v>
+        <v>50.92952327646101</v>
       </c>
       <c r="O2" t="n">
-        <v>65.79354395927294</v>
+        <v>65.79354395927302</v>
       </c>
       <c r="P2" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="Q2" t="n">
-        <v>70.31071236238321</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="R2" t="n">
-        <v>54.65931120632251</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="S2" t="n">
-        <v>36.25698063026181</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="T2" t="n">
-        <v>17.85465005420112</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="U2" t="n">
-        <v>4.509630139995732</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="V2" t="n">
-        <v>4.509630139995732</v>
+        <v>54.47089850513974</v>
       </c>
       <c r="W2" t="n">
-        <v>4.509630139995732</v>
+        <v>36.06856792907902</v>
       </c>
       <c r="X2" t="n">
-        <v>4.509630139995732</v>
+        <v>17.6662373530183</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.509630139995732</v>
+        <v>17.6662373530183</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.07389656998492</v>
+        <v>2.671565993924254</v>
       </c>
       <c r="C3" t="n">
-        <v>21.07389656998492</v>
+        <v>2.671565993924254</v>
       </c>
       <c r="D3" t="n">
-        <v>21.07389656998492</v>
+        <v>2.671565993924254</v>
       </c>
       <c r="E3" t="n">
-        <v>21.07389656998492</v>
+        <v>2.671565993924254</v>
       </c>
       <c r="F3" t="n">
-        <v>21.07389656998492</v>
+        <v>2.671565993924254</v>
       </c>
       <c r="G3" t="n">
-        <v>19.8597951576847</v>
+        <v>2.671565993924254</v>
       </c>
       <c r="H3" t="n">
-        <v>1.457464581624007</v>
+        <v>2.671565993924254</v>
       </c>
       <c r="I3" t="n">
-        <v>1.457464581624007</v>
+        <v>2.671565993924254</v>
       </c>
       <c r="J3" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K3" t="n">
-        <v>5.886021080118643</v>
+        <v>5.886021080118655</v>
       </c>
       <c r="L3" t="n">
-        <v>19.36817474787377</v>
+        <v>19.36817474787379</v>
       </c>
       <c r="M3" t="n">
-        <v>28.67140894156418</v>
+        <v>37.40429894547091</v>
       </c>
       <c r="N3" t="n">
-        <v>46.70753313916127</v>
+        <v>55.44042314306803</v>
       </c>
       <c r="O3" t="n">
-        <v>62.96599962173939</v>
+        <v>71.69888962564616</v>
       </c>
       <c r="P3" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120046</v>
       </c>
       <c r="Q3" t="n">
-        <v>71.35384443365392</v>
+        <v>71.35384443365402</v>
       </c>
       <c r="R3" t="n">
-        <v>57.87855772210632</v>
+        <v>57.87855772210643</v>
       </c>
       <c r="S3" t="n">
-        <v>39.47622714604562</v>
+        <v>39.4762271460457</v>
       </c>
       <c r="T3" t="n">
-        <v>21.07389656998492</v>
+        <v>39.4762271460457</v>
       </c>
       <c r="U3" t="n">
-        <v>21.07389656998492</v>
+        <v>39.4762271460457</v>
       </c>
       <c r="V3" t="n">
-        <v>21.07389656998492</v>
+        <v>21.07389656998498</v>
       </c>
       <c r="W3" t="n">
-        <v>21.07389656998492</v>
+        <v>21.07389656998498</v>
       </c>
       <c r="X3" t="n">
-        <v>21.07389656998492</v>
+        <v>21.07389656998498</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.07389656998492</v>
+        <v>21.07389656998498</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="C4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="D4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="E4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="F4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="G4" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="H4" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="I4" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="J4" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="K4" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="L4" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="M4" t="n">
-        <v>1.457464581624007</v>
+        <v>1.457464581624009</v>
       </c>
       <c r="N4" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="O4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="P4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="R4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="S4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="T4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="U4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="V4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="W4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="X4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.457464581624007</v>
+        <v>2.052539169432689</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.8597951576847</v>
+        <v>54.47089850513976</v>
       </c>
       <c r="C5" t="n">
-        <v>1.457464581624007</v>
+        <v>38.26212573374547</v>
       </c>
       <c r="D5" t="n">
-        <v>1.457464581624007</v>
+        <v>38.26212573374547</v>
       </c>
       <c r="E5" t="n">
-        <v>1.457464581624007</v>
+        <v>19.85979515768474</v>
       </c>
       <c r="F5" t="n">
-        <v>1.457464581624007</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="G5" t="n">
-        <v>1.457464581624007</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="H5" t="n">
-        <v>1.457464581624007</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="I5" t="n">
-        <v>1.457464581624007</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="J5" t="n">
-        <v>1.457464581624007</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="K5" t="n">
-        <v>5.219099475992266</v>
+        <v>5.219099475992294</v>
       </c>
       <c r="L5" t="n">
-        <v>15.88227649088179</v>
+        <v>15.88227649088184</v>
       </c>
       <c r="M5" t="n">
-        <v>32.89339907886386</v>
+        <v>32.89339907886394</v>
       </c>
       <c r="N5" t="n">
-        <v>50.92952327646095</v>
+        <v>50.92952327646104</v>
       </c>
       <c r="O5" t="n">
-        <v>65.79354395927294</v>
+        <v>65.79354395927305</v>
       </c>
       <c r="P5" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="Q5" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="R5" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="S5" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="T5" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="U5" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="V5" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="W5" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="X5" t="n">
-        <v>56.66445630980611</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.26212573374541</v>
+        <v>72.87322908120049</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72.87322908120036</v>
+        <v>19.85979515768474</v>
       </c>
       <c r="C6" t="n">
-        <v>72.87322908120036</v>
+        <v>19.85979515768474</v>
       </c>
       <c r="D6" t="n">
-        <v>72.87322908120036</v>
+        <v>19.85979515768474</v>
       </c>
       <c r="E6" t="n">
-        <v>54.47089850513967</v>
+        <v>19.85979515768474</v>
       </c>
       <c r="F6" t="n">
-        <v>36.06856792907897</v>
+        <v>19.85979515768474</v>
       </c>
       <c r="G6" t="n">
-        <v>17.66623735301827</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="H6" t="n">
-        <v>6.395301368275488</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="I6" t="n">
-        <v>6.395301368275488</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="J6" t="n">
-        <v>1.457464581624007</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="K6" t="n">
-        <v>5.886021080118643</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="L6" t="n">
-        <v>19.36817474787377</v>
+        <v>10.63528474396713</v>
       </c>
       <c r="M6" t="n">
-        <v>28.67140894156418</v>
+        <v>28.67140894156425</v>
       </c>
       <c r="N6" t="n">
-        <v>46.70753313916127</v>
+        <v>46.70753313916137</v>
       </c>
       <c r="O6" t="n">
-        <v>62.96599962173939</v>
+        <v>62.96599962173951</v>
       </c>
       <c r="P6" t="n">
-        <v>72.87322908120036</v>
+        <v>72.87322908120049</v>
       </c>
       <c r="Q6" t="n">
-        <v>72.87322908120036</v>
+        <v>71.35384443365405</v>
       </c>
       <c r="R6" t="n">
-        <v>72.87322908120036</v>
+        <v>57.87855772210646</v>
       </c>
       <c r="S6" t="n">
-        <v>72.87322908120036</v>
+        <v>39.47622714604573</v>
       </c>
       <c r="T6" t="n">
-        <v>72.87322908120036</v>
+        <v>38.26212573374547</v>
       </c>
       <c r="U6" t="n">
-        <v>72.87322908120036</v>
+        <v>38.26212573374547</v>
       </c>
       <c r="V6" t="n">
-        <v>72.87322908120036</v>
+        <v>19.85979515768474</v>
       </c>
       <c r="W6" t="n">
-        <v>72.87322908120036</v>
+        <v>19.85979515768474</v>
       </c>
       <c r="X6" t="n">
-        <v>72.87322908120036</v>
+        <v>19.85979515768474</v>
       </c>
       <c r="Y6" t="n">
-        <v>72.87322908120036</v>
+        <v>19.85979515768474</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="C7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="D7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="E7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="F7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="G7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="H7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="I7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="J7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="K7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="L7" t="n">
-        <v>2.052539169432679</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="M7" t="n">
-        <v>1.457464581624007</v>
+        <v>1.45746458162401</v>
       </c>
       <c r="N7" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="O7" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="P7" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="R7" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="S7" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="T7" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="U7" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="V7" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="W7" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="X7" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432689</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.052539169432679</v>
+        <v>2.052539169432689</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94.03885183617754</v>
+        <v>2.947155308689514</v>
       </c>
       <c r="C8" t="n">
-        <v>94.03885183617754</v>
+        <v>2.947155308689514</v>
       </c>
       <c r="D8" t="n">
-        <v>94.03885183617754</v>
+        <v>2.947155308689514</v>
       </c>
       <c r="E8" t="n">
-        <v>94.03885183617756</v>
+        <v>2.947155308689514</v>
       </c>
       <c r="F8" t="n">
-        <v>71.30224702836013</v>
+        <v>2.947155308689514</v>
       </c>
       <c r="G8" t="n">
-        <v>47.55506222124458</v>
+        <v>2.947155308689514</v>
       </c>
       <c r="H8" t="n">
-        <v>23.80787741412904</v>
+        <v>2.947155308689514</v>
       </c>
       <c r="I8" t="n">
-        <v>1.880777036723551</v>
+        <v>2.947155308689514</v>
       </c>
       <c r="J8" t="n">
-        <v>1.880777036723551</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="K8" t="n">
-        <v>8.4159116854429</v>
+        <v>8.629045391172397</v>
       </c>
       <c r="L8" t="n">
-        <v>22.51986039522949</v>
+        <v>22.96239275619889</v>
       </c>
       <c r="M8" t="n">
-        <v>43.35950445951396</v>
+        <v>44.05728702482662</v>
       </c>
       <c r="N8" t="n">
-        <v>65.28609961349601</v>
+        <v>66.24326259831403</v>
       </c>
       <c r="O8" t="n">
-        <v>83.82378169965439</v>
+        <v>85.02587025944861</v>
       </c>
       <c r="P8" t="n">
-        <v>94.03885183617754</v>
+        <v>95.44997870766049</v>
       </c>
       <c r="Q8" t="n">
-        <v>94.03885183617754</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="R8" t="n">
-        <v>94.03885183617754</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="S8" t="n">
-        <v>94.03885183617754</v>
+        <v>71.34644873097854</v>
       </c>
       <c r="T8" t="n">
-        <v>94.03885183617754</v>
+        <v>47.2429187542966</v>
       </c>
       <c r="U8" t="n">
-        <v>94.03885183617754</v>
+        <v>23.13938877761466</v>
       </c>
       <c r="V8" t="n">
-        <v>94.03885183617754</v>
+        <v>23.13938877761466</v>
       </c>
       <c r="W8" t="n">
-        <v>94.03885183617754</v>
+        <v>23.13938877761466</v>
       </c>
       <c r="X8" t="n">
-        <v>94.03885183617754</v>
+        <v>2.947155308689514</v>
       </c>
       <c r="Y8" t="n">
-        <v>94.03885183617754</v>
+        <v>2.947155308689514</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94.03885183617756</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="C9" t="n">
-        <v>94.03885183617756</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="D9" t="n">
-        <v>94.03885183617756</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="E9" t="n">
-        <v>70.29166702906201</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="F9" t="n">
-        <v>46.54448222194647</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="G9" t="n">
-        <v>22.79729741483092</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="H9" t="n">
-        <v>12.01916245090935</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="I9" t="n">
-        <v>1.880777036723551</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="J9" t="n">
-        <v>1.880777036723551</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="K9" t="n">
-        <v>8.193129398185485</v>
+        <v>8.34694592325231</v>
       </c>
       <c r="L9" t="n">
-        <v>24.20827907854881</v>
+        <v>24.53097221925455</v>
       </c>
       <c r="M9" t="n">
-        <v>46.0426944477166</v>
+        <v>46.56245863347759</v>
       </c>
       <c r="N9" t="n">
-        <v>69.31731027717055</v>
+        <v>70.18632836362356</v>
       </c>
       <c r="O9" t="n">
-        <v>81.90393668038418</v>
+        <v>89.40547527170457</v>
       </c>
       <c r="P9" t="n">
-        <v>94.03885183617756</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.03885183617756</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="R9" t="n">
-        <v>94.03885183617756</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="S9" t="n">
-        <v>94.03885183617756</v>
+        <v>71.34644873097854</v>
       </c>
       <c r="T9" t="n">
-        <v>94.03885183617756</v>
+        <v>47.2429187542966</v>
       </c>
       <c r="U9" t="n">
-        <v>94.03885183617756</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="V9" t="n">
-        <v>94.03885183617756</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="W9" t="n">
-        <v>94.03885183617756</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="X9" t="n">
-        <v>94.03885183617756</v>
+        <v>26.01252955083515</v>
       </c>
       <c r="Y9" t="n">
-        <v>94.03885183617756</v>
+        <v>26.01252955083515</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="C10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="D10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="E10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="F10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="G10" t="n">
-        <v>5.096769994497224</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="H10" t="n">
-        <v>5.096769994497224</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="I10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="J10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="K10" t="n">
-        <v>1.880777036723551</v>
+        <v>1.90899957415321</v>
       </c>
       <c r="L10" t="n">
-        <v>2.170301745874839</v>
+        <v>2.295468180757751</v>
       </c>
       <c r="M10" t="n">
-        <v>3.005035947119213</v>
+        <v>3.232416129329167</v>
       </c>
       <c r="N10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="O10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="P10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="R10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="S10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="T10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="U10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="V10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="W10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="X10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581744</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.096769994497224</v>
+        <v>5.423933509581744</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>352.374721872006</v>
+        <v>174.4076906235181</v>
       </c>
       <c r="C11" t="n">
-        <v>352.374721872006</v>
+        <v>174.4076906235181</v>
       </c>
       <c r="D11" t="n">
-        <v>352.374721872006</v>
+        <v>85.42417499927416</v>
       </c>
       <c r="E11" t="n">
-        <v>273.9980413101719</v>
+        <v>7.047494437440121</v>
       </c>
       <c r="F11" t="n">
-        <v>185.014525685928</v>
+        <v>7.047494437440121</v>
       </c>
       <c r="G11" t="n">
-        <v>96.03101006168406</v>
+        <v>7.047494437440121</v>
       </c>
       <c r="H11" t="n">
-        <v>7.04749443744012</v>
+        <v>7.047494437440121</v>
       </c>
       <c r="I11" t="n">
-        <v>7.04749443744012</v>
+        <v>7.047494437440121</v>
       </c>
       <c r="J11" t="n">
-        <v>24.78252049490588</v>
+        <v>24.78252049490595</v>
       </c>
       <c r="K11" t="n">
-        <v>59.60773643878164</v>
+        <v>59.60773643878173</v>
       </c>
       <c r="L11" t="n">
-        <v>108.8080325753178</v>
+        <v>108.8080325753179</v>
       </c>
       <c r="M11" t="n">
-        <v>168.6991254940435</v>
+        <v>168.6991254940436</v>
       </c>
       <c r="N11" t="n">
-        <v>230.3090627719645</v>
+        <v>230.3090627719646</v>
       </c>
       <c r="O11" t="n">
-        <v>286.3185995386593</v>
+        <v>286.3185995386594</v>
       </c>
       <c r="P11" t="n">
-        <v>328.5150307030225</v>
+        <v>328.5150307030226</v>
       </c>
       <c r="Q11" t="n">
-        <v>352.374721872006</v>
+        <v>352.3747218720061</v>
       </c>
       <c r="R11" t="n">
         <v>352.374721872006</v>
       </c>
       <c r="S11" t="n">
-        <v>352.374721872006</v>
+        <v>263.3912062477621</v>
       </c>
       <c r="T11" t="n">
-        <v>352.374721872006</v>
+        <v>263.3912062477621</v>
       </c>
       <c r="U11" t="n">
-        <v>352.374721872006</v>
+        <v>263.3912062477621</v>
       </c>
       <c r="V11" t="n">
-        <v>352.374721872006</v>
+        <v>263.3912062477621</v>
       </c>
       <c r="W11" t="n">
-        <v>352.374721872006</v>
+        <v>263.3912062477621</v>
       </c>
       <c r="X11" t="n">
-        <v>352.374721872006</v>
+        <v>263.3912062477621</v>
       </c>
       <c r="Y11" t="n">
-        <v>352.374721872006</v>
+        <v>174.4076906235181</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>287.0118951916915</v>
+        <v>20.06134831895966</v>
       </c>
       <c r="C12" t="n">
-        <v>198.0283795674476</v>
+        <v>20.06134831895966</v>
       </c>
       <c r="D12" t="n">
-        <v>109.0448639432037</v>
+        <v>20.06134831895966</v>
       </c>
       <c r="E12" t="n">
-        <v>20.06134831895972</v>
+        <v>20.06134831895966</v>
       </c>
       <c r="F12" t="n">
-        <v>7.04749443744012</v>
+        <v>7.047494437440121</v>
       </c>
       <c r="G12" t="n">
-        <v>7.04749443744012</v>
+        <v>7.047494437440121</v>
       </c>
       <c r="H12" t="n">
-        <v>7.04749443744012</v>
+        <v>7.047494437440121</v>
       </c>
       <c r="I12" t="n">
-        <v>7.04749443744012</v>
+        <v>7.047494437440121</v>
       </c>
       <c r="J12" t="n">
         <v>14.55245432966376</v>
@@ -5150,22 +5150,22 @@
         <v>287.0118951916915</v>
       </c>
       <c r="T12" t="n">
-        <v>287.0118951916915</v>
+        <v>198.0283795674476</v>
       </c>
       <c r="U12" t="n">
-        <v>287.0118951916915</v>
+        <v>109.0448639432036</v>
       </c>
       <c r="V12" t="n">
-        <v>287.0118951916915</v>
+        <v>109.0448639432036</v>
       </c>
       <c r="W12" t="n">
-        <v>287.0118951916915</v>
+        <v>20.06134831895966</v>
       </c>
       <c r="X12" t="n">
-        <v>287.0118951916915</v>
+        <v>20.06134831895966</v>
       </c>
       <c r="Y12" t="n">
-        <v>287.0118951916915</v>
+        <v>20.06134831895966</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409735</v>
       </c>
       <c r="C13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409735</v>
       </c>
       <c r="D13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409735</v>
       </c>
       <c r="E13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409735</v>
       </c>
       <c r="F13" t="n">
-        <v>7.04749443744012</v>
+        <v>7.047494437440121</v>
       </c>
       <c r="G13" t="n">
-        <v>7.04749443744012</v>
+        <v>7.047494437440121</v>
       </c>
       <c r="H13" t="n">
-        <v>7.04749443744012</v>
+        <v>7.047494437440121</v>
       </c>
       <c r="I13" t="n">
-        <v>7.04749443744012</v>
+        <v>7.047494437440121</v>
       </c>
       <c r="J13" t="n">
-        <v>7.04749443744012</v>
+        <v>7.047494437440121</v>
       </c>
       <c r="K13" t="n">
         <v>15.06648958421997</v>
@@ -5226,25 +5226,25 @@
         <v>84.54701889409735</v>
       </c>
       <c r="S13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409735</v>
       </c>
       <c r="T13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409735</v>
       </c>
       <c r="U13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409735</v>
       </c>
       <c r="V13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409735</v>
       </c>
       <c r="W13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409735</v>
       </c>
       <c r="X13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409735</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.04749443744012</v>
+        <v>84.54701889409735</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.047494437440121</v>
+        <v>263.3912062477621</v>
       </c>
       <c r="C14" t="n">
-        <v>7.047494437440121</v>
+        <v>263.3912062477621</v>
       </c>
       <c r="D14" t="n">
-        <v>7.047494437440121</v>
+        <v>263.3912062477621</v>
       </c>
       <c r="E14" t="n">
-        <v>7.047494437440121</v>
+        <v>263.3912062477621</v>
       </c>
       <c r="F14" t="n">
-        <v>7.047494437440121</v>
+        <v>174.4076906235181</v>
       </c>
       <c r="G14" t="n">
-        <v>7.047494437440121</v>
+        <v>96.03101006168407</v>
       </c>
       <c r="H14" t="n">
         <v>7.047494437440121</v>
@@ -5278,16 +5278,16 @@
         <v>7.047494437440121</v>
       </c>
       <c r="J14" t="n">
-        <v>24.78252049490595</v>
+        <v>24.78252049490587</v>
       </c>
       <c r="K14" t="n">
-        <v>59.60773643878173</v>
+        <v>59.60773643878164</v>
       </c>
       <c r="L14" t="n">
         <v>108.8080325753178</v>
       </c>
       <c r="M14" t="n">
-        <v>168.6991254940436</v>
+        <v>168.6991254940435</v>
       </c>
       <c r="N14" t="n">
         <v>230.3090627719645</v>
@@ -5296,10 +5296,10 @@
         <v>286.3185995386593</v>
       </c>
       <c r="P14" t="n">
-        <v>328.5150307030226</v>
+        <v>328.5150307030225</v>
       </c>
       <c r="Q14" t="n">
-        <v>352.3747218720061</v>
+        <v>352.374721872006</v>
       </c>
       <c r="R14" t="n">
         <v>352.374721872006</v>
@@ -5308,22 +5308,22 @@
         <v>263.3912062477621</v>
       </c>
       <c r="T14" t="n">
-        <v>174.4076906235181</v>
+        <v>263.3912062477621</v>
       </c>
       <c r="U14" t="n">
-        <v>96.03101006168407</v>
+        <v>263.3912062477621</v>
       </c>
       <c r="V14" t="n">
-        <v>7.047494437440121</v>
+        <v>263.3912062477621</v>
       </c>
       <c r="W14" t="n">
-        <v>7.047494437440121</v>
+        <v>263.3912062477621</v>
       </c>
       <c r="X14" t="n">
-        <v>7.047494437440121</v>
+        <v>263.3912062477621</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.047494437440121</v>
+        <v>263.3912062477621</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>273.998041310172</v>
+        <v>185.014525685928</v>
       </c>
       <c r="C15" t="n">
-        <v>185.014525685928</v>
+        <v>96.03101006168407</v>
       </c>
       <c r="D15" t="n">
-        <v>96.03101006168407</v>
+        <v>7.047494437440121</v>
       </c>
       <c r="E15" t="n">
         <v>7.047494437440121</v>
@@ -5402,7 +5402,7 @@
         <v>287.0118951916915</v>
       </c>
       <c r="Y15" t="n">
-        <v>287.0118951916915</v>
+        <v>273.998041310172</v>
       </c>
     </row>
     <row r="16">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>860.2643733943197</v>
+        <v>747.2845986210419</v>
       </c>
       <c r="C17" t="n">
-        <v>433.3636434076198</v>
+        <v>747.2845986210419</v>
       </c>
       <c r="D17" t="n">
-        <v>433.3636434076198</v>
+        <v>747.2845986210419</v>
       </c>
       <c r="E17" t="n">
-        <v>433.3636434076198</v>
+        <v>747.2845986210419</v>
       </c>
       <c r="F17" t="n">
-        <v>48.62404813690172</v>
+        <v>450.6976894637164</v>
       </c>
       <c r="G17" t="n">
-        <v>48.62404813690172</v>
+        <v>48.60041826463748</v>
       </c>
       <c r="H17" t="n">
-        <v>48.62404813690172</v>
+        <v>48.60041826463748</v>
       </c>
       <c r="I17" t="n">
-        <v>99.16422808906867</v>
+        <v>99.10475997836784</v>
       </c>
       <c r="J17" t="n">
-        <v>256.6002356925479</v>
+        <v>256.4618693083385</v>
       </c>
       <c r="K17" t="n">
-        <v>500.8010092303053</v>
+        <v>500.5443947863735</v>
       </c>
       <c r="L17" t="n">
-        <v>809.7501988153166</v>
+        <v>809.3468871970906</v>
       </c>
       <c r="M17" t="n">
-        <v>1158.661983949143</v>
+        <v>1158.095443458996</v>
       </c>
       <c r="N17" t="n">
-        <v>1513.969270404037</v>
+        <v>1513.236859828169</v>
       </c>
       <c r="O17" t="n">
-        <v>1847.308885722237</v>
+        <v>1846.419848727946</v>
       </c>
       <c r="P17" t="n">
-        <v>2126.200122672178</v>
+        <v>2125.177408653442</v>
       </c>
       <c r="Q17" t="n">
-        <v>2327.807755589076</v>
+        <v>2326.684655692099</v>
       </c>
       <c r="R17" t="n">
-        <v>2431.202406845086</v>
+        <v>2430.020913231874</v>
       </c>
       <c r="S17" t="n">
-        <v>2431.202406845086</v>
+        <v>2430.020913231874</v>
       </c>
       <c r="T17" t="n">
-        <v>2431.202406845086</v>
+        <v>2218.908783304727</v>
       </c>
       <c r="U17" t="n">
-        <v>2431.202406845086</v>
+        <v>1960.733217198057</v>
       </c>
       <c r="V17" t="n">
-        <v>2073.712991971335</v>
+        <v>1960.733217198057</v>
       </c>
       <c r="W17" t="n">
-        <v>1677.321642271682</v>
+        <v>1564.341867498404</v>
       </c>
       <c r="X17" t="n">
-        <v>1265.601643439429</v>
+        <v>1152.621868666152</v>
       </c>
       <c r="Y17" t="n">
-        <v>860.2643733943197</v>
+        <v>747.2845986210419</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>547.2505097166859</v>
+        <v>561.1483520153961</v>
       </c>
       <c r="C18" t="n">
-        <v>429.7446062341907</v>
+        <v>443.6424485329009</v>
       </c>
       <c r="D18" t="n">
-        <v>325.9046477494757</v>
+        <v>339.8024900481859</v>
       </c>
       <c r="E18" t="n">
-        <v>221.2027140224129</v>
+        <v>235.1005563211231</v>
       </c>
       <c r="F18" t="n">
-        <v>183.2647430166912</v>
+        <v>141.4547260040272</v>
       </c>
       <c r="G18" t="n">
-        <v>90.4109427536317</v>
+        <v>48.60041826463748</v>
       </c>
       <c r="H18" t="n">
-        <v>48.62404813690172</v>
+        <v>48.60041826463748</v>
       </c>
       <c r="I18" t="n">
-        <v>73.10602944693852</v>
+        <v>73.06527495284253</v>
       </c>
       <c r="J18" t="n">
-        <v>163.8159369004335</v>
+        <v>163.7281911351428</v>
       </c>
       <c r="K18" t="n">
-        <v>331.5537758177427</v>
+        <v>331.3857144853209</v>
       </c>
       <c r="L18" t="n">
-        <v>564.6254133148</v>
+        <v>564.3493577908137</v>
       </c>
       <c r="M18" t="n">
-        <v>839.7545120729266</v>
+        <v>839.3524324211414</v>
       </c>
       <c r="N18" t="n">
-        <v>1124.506864201806</v>
+        <v>1123.975424938555</v>
       </c>
       <c r="O18" t="n">
-        <v>1381.388918792416</v>
+        <v>1380.739140757127</v>
       </c>
       <c r="P18" t="n">
-        <v>1584.417791458829</v>
+        <v>1583.673036126048</v>
       </c>
       <c r="Q18" t="n">
-        <v>1712.025346683899</v>
+        <v>1711.217101542991</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.610031794467</v>
+        <v>1760.770905615769</v>
       </c>
       <c r="S18" t="n">
-        <v>1702.574729024099</v>
+        <v>1701.726176695144</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.53152062998</v>
+        <v>1564.680922815291</v>
       </c>
       <c r="U18" t="n">
-        <v>1380.84227004431</v>
+        <v>1394.74011234302</v>
       </c>
       <c r="V18" t="n">
-        <v>1175.869131183576</v>
+        <v>1189.766973482286</v>
       </c>
       <c r="W18" t="n">
-        <v>979.3477540167934</v>
+        <v>993.2455963155036</v>
       </c>
       <c r="X18" t="n">
-        <v>815.8704077834562</v>
+        <v>829.7682500821664</v>
       </c>
       <c r="Y18" t="n">
-        <v>676.1775191367486</v>
+        <v>690.0753614354588</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.62404813690172</v>
+        <v>330.3328882118709</v>
       </c>
       <c r="C19" t="n">
-        <v>48.62404813690172</v>
+        <v>158.3603250907869</v>
       </c>
       <c r="D19" t="n">
-        <v>48.62404813690172</v>
+        <v>158.3603250907869</v>
       </c>
       <c r="E19" t="n">
-        <v>48.62404813690172</v>
+        <v>158.3603250907869</v>
       </c>
       <c r="F19" t="n">
-        <v>48.62404813690172</v>
+        <v>158.3603250907869</v>
       </c>
       <c r="G19" t="n">
-        <v>48.62404813690172</v>
+        <v>158.3603250907869</v>
       </c>
       <c r="H19" t="n">
-        <v>48.62404813690172</v>
+        <v>48.60041826463748</v>
       </c>
       <c r="I19" t="n">
-        <v>48.62404813690172</v>
+        <v>48.60041826463748</v>
       </c>
       <c r="J19" t="n">
-        <v>97.90358380566128</v>
+        <v>97.85047311998477</v>
       </c>
       <c r="K19" t="n">
-        <v>191.703395224501</v>
+        <v>191.6018385062401</v>
       </c>
       <c r="L19" t="n">
-        <v>316.5945518224486</v>
+        <v>316.4310008618648</v>
       </c>
       <c r="M19" t="n">
-        <v>448.8042364124977</v>
+        <v>448.5753212156188</v>
       </c>
       <c r="N19" t="n">
-        <v>579.1471181658872</v>
+        <v>578.8543929481558</v>
       </c>
       <c r="O19" t="n">
-        <v>696.238989122774</v>
+        <v>695.8873250228344</v>
       </c>
       <c r="P19" t="n">
-        <v>793.3337426628177</v>
+        <v>792.9316461671423</v>
       </c>
       <c r="Q19" t="n">
-        <v>851.5241032894696</v>
+        <v>851.0870900171013</v>
       </c>
       <c r="R19" t="n">
-        <v>851.5241032894696</v>
+        <v>851.0870900171013</v>
       </c>
       <c r="S19" t="n">
-        <v>698.9211677349933</v>
+        <v>851.0870900171013</v>
       </c>
       <c r="T19" t="n">
-        <v>698.9211677349933</v>
+        <v>612.044355603842</v>
       </c>
       <c r="U19" t="n">
-        <v>698.9211677349933</v>
+        <v>612.044355603842</v>
       </c>
       <c r="V19" t="n">
-        <v>417.2097003430222</v>
+        <v>330.3328882118709</v>
       </c>
       <c r="W19" t="n">
-        <v>142.3572965155353</v>
+        <v>330.3328882118709</v>
       </c>
       <c r="X19" t="n">
-        <v>48.62404813690172</v>
+        <v>330.3328882118709</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.62404813690172</v>
+        <v>330.3328882118709</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>899.7251697996439</v>
+        <v>1965.018437504191</v>
       </c>
       <c r="C20" t="n">
-        <v>899.7251697996439</v>
+        <v>1965.018437504191</v>
       </c>
       <c r="D20" t="n">
-        <v>899.7251697996439</v>
+        <v>1541.725816689191</v>
       </c>
       <c r="E20" t="n">
-        <v>473.7482299475015</v>
+        <v>1115.748876837049</v>
       </c>
       <c r="F20" t="n">
-        <v>48.62404813690172</v>
+        <v>690.6246950264488</v>
       </c>
       <c r="G20" t="n">
-        <v>48.62404813690172</v>
+        <v>288.5274238273699</v>
       </c>
       <c r="H20" t="n">
-        <v>48.62404813690172</v>
+        <v>48.60041826463748</v>
       </c>
       <c r="I20" t="n">
-        <v>99.16422808906844</v>
+        <v>99.10475997836829</v>
       </c>
       <c r="J20" t="n">
-        <v>256.6002356925477</v>
+        <v>256.4618693083386</v>
       </c>
       <c r="K20" t="n">
-        <v>500.8010092303053</v>
+        <v>500.5443947863736</v>
       </c>
       <c r="L20" t="n">
-        <v>809.7501988153166</v>
+        <v>809.3468871970906</v>
       </c>
       <c r="M20" t="n">
-        <v>1158.661983949143</v>
+        <v>1158.095443458996</v>
       </c>
       <c r="N20" t="n">
-        <v>1513.969270404037</v>
+        <v>1513.236859828169</v>
       </c>
       <c r="O20" t="n">
-        <v>1847.308885722237</v>
+        <v>1846.419848727946</v>
       </c>
       <c r="P20" t="n">
-        <v>2126.200122672178</v>
+        <v>2125.177408653443</v>
       </c>
       <c r="Q20" t="n">
-        <v>2327.807755589076</v>
+        <v>2326.6846556921</v>
       </c>
       <c r="R20" t="n">
-        <v>2431.202406845086</v>
+        <v>2430.020913231874</v>
       </c>
       <c r="S20" t="n">
-        <v>2431.202406845086</v>
+        <v>2376.738436336444</v>
       </c>
       <c r="T20" t="n">
-        <v>2220.094428846519</v>
+        <v>2376.738436336444</v>
       </c>
       <c r="U20" t="n">
-        <v>2220.094428846519</v>
+        <v>2376.738436336444</v>
       </c>
       <c r="V20" t="n">
-        <v>2220.094428846519</v>
+        <v>2376.738436336444</v>
       </c>
       <c r="W20" t="n">
-        <v>1823.703079146866</v>
+        <v>2376.738436336444</v>
       </c>
       <c r="X20" t="n">
-        <v>1411.983080314614</v>
+        <v>1965.018437504191</v>
       </c>
       <c r="Y20" t="n">
-        <v>1006.645810269504</v>
+        <v>1965.018437504191</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>561.17147441133</v>
+        <v>602.9401477851052</v>
       </c>
       <c r="C21" t="n">
-        <v>443.6655709288348</v>
+        <v>485.43424430261</v>
       </c>
       <c r="D21" t="n">
-        <v>339.8256124441198</v>
+        <v>381.594285817895</v>
       </c>
       <c r="E21" t="n">
-        <v>235.123678717057</v>
+        <v>276.8923520908322</v>
       </c>
       <c r="F21" t="n">
-        <v>141.4778483999612</v>
+        <v>183.2465217737363</v>
       </c>
       <c r="G21" t="n">
-        <v>48.62404813690172</v>
+        <v>90.39221403434659</v>
       </c>
       <c r="H21" t="n">
-        <v>48.62404813690172</v>
+        <v>48.60041826463748</v>
       </c>
       <c r="I21" t="n">
-        <v>73.10602944693852</v>
+        <v>73.06527495284253</v>
       </c>
       <c r="J21" t="n">
-        <v>163.8159369004335</v>
+        <v>163.7281911351428</v>
       </c>
       <c r="K21" t="n">
-        <v>331.5537758177427</v>
+        <v>331.3857144853209</v>
       </c>
       <c r="L21" t="n">
-        <v>564.6254133148</v>
+        <v>564.3493577908137</v>
       </c>
       <c r="M21" t="n">
-        <v>839.7545120729266</v>
+        <v>839.3524324211414</v>
       </c>
       <c r="N21" t="n">
-        <v>1124.506864201806</v>
+        <v>1123.975424938555</v>
       </c>
       <c r="O21" t="n">
-        <v>1381.388918792416</v>
+        <v>1380.739140757127</v>
       </c>
       <c r="P21" t="n">
-        <v>1584.417791458829</v>
+        <v>1583.673036126048</v>
       </c>
       <c r="Q21" t="n">
-        <v>1712.025346683899</v>
+        <v>1711.217101542991</v>
       </c>
       <c r="R21" t="n">
-        <v>1761.610031794467</v>
+        <v>1760.770905615769</v>
       </c>
       <c r="S21" t="n">
-        <v>1716.495693718743</v>
+        <v>1758.266445964854</v>
       </c>
       <c r="T21" t="n">
-        <v>1579.452485324624</v>
+        <v>1621.221192085</v>
       </c>
       <c r="U21" t="n">
-        <v>1394.763234738954</v>
+        <v>1436.531908112729</v>
       </c>
       <c r="V21" t="n">
-        <v>1189.79009587822</v>
+        <v>1231.558769251995</v>
       </c>
       <c r="W21" t="n">
-        <v>993.2687187114375</v>
+        <v>1035.037392085213</v>
       </c>
       <c r="X21" t="n">
-        <v>829.7913724781004</v>
+        <v>871.5600458518755</v>
       </c>
       <c r="Y21" t="n">
-        <v>690.0984838313927</v>
+        <v>731.8671572051679</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1628.302351692518</v>
+        <v>48.60041826463748</v>
       </c>
       <c r="C22" t="n">
-        <v>1628.302351692518</v>
+        <v>48.60041826463748</v>
       </c>
       <c r="D22" t="n">
-        <v>1628.302351692518</v>
+        <v>48.60041826463748</v>
       </c>
       <c r="E22" t="n">
-        <v>1628.302351692518</v>
+        <v>48.60041826463748</v>
       </c>
       <c r="F22" t="n">
-        <v>1628.302351692518</v>
+        <v>48.60041826463748</v>
       </c>
       <c r="G22" t="n">
-        <v>1628.302351692518</v>
+        <v>48.60041826463748</v>
       </c>
       <c r="H22" t="n">
-        <v>1628.302351692518</v>
+        <v>48.60041826463748</v>
       </c>
       <c r="I22" t="n">
-        <v>1628.302351692518</v>
+        <v>48.60041826463748</v>
       </c>
       <c r="J22" t="n">
-        <v>1677.581887361278</v>
+        <v>97.85047311998477</v>
       </c>
       <c r="K22" t="n">
-        <v>1771.381698780117</v>
+        <v>191.6018385062401</v>
       </c>
       <c r="L22" t="n">
-        <v>1896.272855378065</v>
+        <v>316.4310008618648</v>
       </c>
       <c r="M22" t="n">
-        <v>2028.482539968114</v>
+        <v>448.5753212156188</v>
       </c>
       <c r="N22" t="n">
-        <v>2158.825421721504</v>
+        <v>578.8543929481558</v>
       </c>
       <c r="O22" t="n">
-        <v>2275.91729267839</v>
+        <v>695.8873250228344</v>
       </c>
       <c r="P22" t="n">
-        <v>2373.012046218434</v>
+        <v>792.9316461671423</v>
       </c>
       <c r="Q22" t="n">
-        <v>2431.202406845086</v>
+        <v>851.0870900171013</v>
       </c>
       <c r="R22" t="n">
-        <v>2431.202406845086</v>
+        <v>851.0870900171013</v>
       </c>
       <c r="S22" t="n">
-        <v>2431.202406845086</v>
+        <v>800.6074524850401</v>
       </c>
       <c r="T22" t="n">
-        <v>2431.202406845086</v>
+        <v>800.6074524850401</v>
       </c>
       <c r="U22" t="n">
-        <v>2431.202406845086</v>
+        <v>520.4778543686742</v>
       </c>
       <c r="V22" t="n">
-        <v>2149.490939453115</v>
+        <v>238.7663869767031</v>
       </c>
       <c r="W22" t="n">
-        <v>1874.638535625628</v>
+        <v>238.7663869767031</v>
       </c>
       <c r="X22" t="n">
-        <v>1632.074639071433</v>
+        <v>238.7663869767031</v>
       </c>
       <c r="Y22" t="n">
-        <v>1628.302351692518</v>
+        <v>238.7663869767031</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.20544392206816</v>
+        <v>1780.438993227765</v>
       </c>
       <c r="C23" t="n">
-        <v>50.20544392206816</v>
+        <v>1353.538263241065</v>
       </c>
       <c r="D23" t="n">
-        <v>50.20544392206816</v>
+        <v>930.2456424260656</v>
       </c>
       <c r="E23" t="n">
-        <v>50.20544392206816</v>
+        <v>504.2687025739232</v>
       </c>
       <c r="F23" t="n">
-        <v>50.20544392206816</v>
+        <v>79.14452076332338</v>
       </c>
       <c r="G23" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="H23" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I23" t="n">
         <v>103.1440473010161</v>
@@ -5995,46 +5995,46 @@
         <v>517.9745679998223</v>
       </c>
       <c r="L23" t="n">
-        <v>836.7412585230811</v>
+        <v>836.7412585230809</v>
       </c>
       <c r="M23" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N23" t="n">
-        <v>1562.984812457614</v>
+        <v>1562.984812457613</v>
       </c>
       <c r="O23" t="n">
         <v>1906.806429336001</v>
       </c>
       <c r="P23" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q23" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R23" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S23" t="n">
-        <v>2458.457769745855</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.627653696034</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U23" t="n">
-        <v>1989.457241469476</v>
+        <v>2200.287357519295</v>
       </c>
       <c r="V23" t="n">
-        <v>1631.967826595725</v>
+        <v>2200.287357519295</v>
       </c>
       <c r="W23" t="n">
-        <v>1235.576476896072</v>
+        <v>2200.287357519295</v>
       </c>
       <c r="X23" t="n">
-        <v>823.8564780638192</v>
+        <v>2200.287357519295</v>
       </c>
       <c r="Y23" t="n">
-        <v>470.0538082135982</v>
+        <v>2200.287357519295</v>
       </c>
     </row>
     <row r="24">
@@ -6059,25 +6059,25 @@
         <v>184.4841739339244</v>
       </c>
       <c r="G24" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H24" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I24" t="n">
-        <v>75.83346633145936</v>
+        <v>75.83346633145926</v>
       </c>
       <c r="J24" t="n">
-        <v>169.6881981570806</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K24" t="n">
         <v>342.8010428266099</v>
       </c>
       <c r="L24" t="n">
-        <v>583.1000388744361</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M24" t="n">
-        <v>866.6631241688301</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N24" t="n">
         <v>1160.072685361481</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1679.707041483854</v>
+        <v>544.9529038222995</v>
       </c>
       <c r="C25" t="n">
-        <v>1679.707041483854</v>
+        <v>544.9529038222995</v>
       </c>
       <c r="D25" t="n">
-        <v>1679.707041483854</v>
+        <v>381.6361309490703</v>
       </c>
       <c r="E25" t="n">
-        <v>1679.707041483854</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="F25" t="n">
-        <v>1679.707041483854</v>
+        <v>215.4279251019238</v>
       </c>
       <c r="G25" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="H25" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="I25" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206813</v>
       </c>
       <c r="J25" t="n">
-        <v>1730.959538900021</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K25" t="n">
-        <v>1828.001532539751</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L25" t="n">
-        <v>1957.041566136168</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M25" t="n">
-        <v>2093.625659805623</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N25" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O25" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P25" t="n">
-        <v>2449.745079574047</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q25" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R25" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S25" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T25" t="n">
-        <v>2510.272196103408</v>
+        <v>544.9529038222995</v>
       </c>
       <c r="U25" t="n">
-        <v>2236.270912703312</v>
+        <v>544.9529038222995</v>
       </c>
       <c r="V25" t="n">
-        <v>1954.559445311341</v>
+        <v>544.9529038222995</v>
       </c>
       <c r="W25" t="n">
-        <v>1679.707041483854</v>
+        <v>544.9529038222995</v>
       </c>
       <c r="X25" t="n">
-        <v>1679.707041483854</v>
+        <v>544.9529038222995</v>
       </c>
       <c r="Y25" t="n">
-        <v>1679.707041483854</v>
+        <v>544.9529038222995</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>324.4553010199516</v>
+        <v>2038.609405454325</v>
       </c>
       <c r="C26" t="n">
-        <v>324.4553010199516</v>
+        <v>1611.708675467625</v>
       </c>
       <c r="D26" t="n">
-        <v>324.4553010199516</v>
+        <v>1188.416054652625</v>
       </c>
       <c r="E26" t="n">
-        <v>324.4553010199516</v>
+        <v>762.4391148004828</v>
       </c>
       <c r="F26" t="n">
-        <v>324.4553010199516</v>
+        <v>337.314932989883</v>
       </c>
       <c r="G26" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H26" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I26" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010166</v>
       </c>
       <c r="J26" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853083</v>
       </c>
       <c r="K26" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998227</v>
       </c>
       <c r="L26" t="n">
-        <v>836.7412585230809</v>
+        <v>836.7412585230815</v>
       </c>
       <c r="M26" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N26" t="n">
-        <v>1562.984812457613</v>
+        <v>1562.984812457614</v>
       </c>
       <c r="O26" t="n">
         <v>1906.806429336001</v>
       </c>
       <c r="P26" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q26" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R26" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S26" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T26" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U26" t="n">
-        <v>2252.101783876848</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="V26" t="n">
-        <v>1894.612369003097</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="W26" t="n">
-        <v>1498.221019303444</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="X26" t="n">
-        <v>1086.501020471192</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="Y26" t="n">
-        <v>681.1637504260819</v>
+        <v>2458.457769745855</v>
       </c>
     </row>
     <row r="27">
@@ -6296,13 +6296,13 @@
         <v>184.4841739339245</v>
       </c>
       <c r="G27" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H27" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I27" t="n">
-        <v>75.83346633145926</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J27" t="n">
         <v>169.6881981570805</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.20544392206813</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="C28" t="n">
-        <v>50.20544392206813</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="D28" t="n">
-        <v>50.20544392206813</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="E28" t="n">
-        <v>50.20544392206813</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="F28" t="n">
-        <v>50.20544392206813</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="G28" t="n">
-        <v>50.20544392206813</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="H28" t="n">
-        <v>50.20544392206813</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I28" t="n">
-        <v>50.20544392206813</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J28" t="n">
         <v>101.4579413382349</v>
@@ -6411,25 +6411,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S28" t="n">
-        <v>880.7705985416225</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="T28" t="n">
-        <v>880.7705985416225</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="U28" t="n">
-        <v>880.7705985416225</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="V28" t="n">
-        <v>880.7705985416225</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="W28" t="n">
-        <v>709.2780774985866</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="X28" t="n">
-        <v>466.7141809443917</v>
+        <v>748.2103058278728</v>
       </c>
       <c r="Y28" t="n">
-        <v>240.3714126341338</v>
+        <v>748.2103058278728</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1474.764004711568</v>
+        <v>830.2392068509618</v>
       </c>
       <c r="C29" t="n">
-        <v>1047.863274724868</v>
+        <v>830.2392068509618</v>
       </c>
       <c r="D29" t="n">
-        <v>624.5706539098687</v>
+        <v>830.2392068509618</v>
       </c>
       <c r="E29" t="n">
-        <v>198.5937140577263</v>
+        <v>830.2392068509618</v>
       </c>
       <c r="F29" t="n">
-        <v>198.5937140577263</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G29" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H29" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I29" t="n">
         <v>103.1440473010161</v>
@@ -6481,34 +6481,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P29" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q29" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R29" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S29" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T29" t="n">
-        <v>2510.272196103408</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U29" t="n">
-        <v>2252.101783876849</v>
+        <v>1989.457241469475</v>
       </c>
       <c r="V29" t="n">
-        <v>1894.612369003098</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W29" t="n">
-        <v>1894.612369003098</v>
+        <v>1235.576476896071</v>
       </c>
       <c r="X29" t="n">
-        <v>1894.612369003098</v>
+        <v>1235.576476896071</v>
       </c>
       <c r="Y29" t="n">
-        <v>1894.612369003098</v>
+        <v>830.2392068509618</v>
       </c>
     </row>
     <row r="30">
@@ -6524,19 +6524,19 @@
         <v>486.671896462798</v>
       </c>
       <c r="D30" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E30" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F30" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G30" t="n">
-        <v>91.66433580662161</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H30" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I30" t="n">
         <v>75.83346633145928</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2093.763459081084</v>
+        <v>582.9878246480171</v>
       </c>
       <c r="C31" t="n">
-        <v>1921.79089596</v>
+        <v>582.9878246480171</v>
       </c>
       <c r="D31" t="n">
-        <v>1921.79089596</v>
+        <v>419.6710517747878</v>
       </c>
       <c r="E31" t="n">
-        <v>1755.582690112853</v>
+        <v>253.4628459276413</v>
       </c>
       <c r="F31" t="n">
-        <v>1679.707041483854</v>
+        <v>253.4628459276413</v>
       </c>
       <c r="G31" t="n">
-        <v>1679.707041483854</v>
+        <v>253.4628459276413</v>
       </c>
       <c r="H31" t="n">
-        <v>1679.707041483854</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I31" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J31" t="n">
-        <v>1730.959538900021</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K31" t="n">
-        <v>1828.001532539751</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L31" t="n">
-        <v>1957.041566136168</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M31" t="n">
-        <v>2093.625659805623</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N31" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O31" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P31" t="n">
-        <v>2449.745079574047</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q31" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R31" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S31" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T31" t="n">
-        <v>2510.272196103408</v>
+        <v>582.9878246480171</v>
       </c>
       <c r="U31" t="n">
-        <v>2510.272196103408</v>
+        <v>582.9878246480171</v>
       </c>
       <c r="V31" t="n">
-        <v>2510.272196103408</v>
+        <v>582.9878246480171</v>
       </c>
       <c r="W31" t="n">
-        <v>2510.272196103408</v>
+        <v>582.9878246480171</v>
       </c>
       <c r="X31" t="n">
-        <v>2510.272196103408</v>
+        <v>582.9878246480171</v>
       </c>
       <c r="Y31" t="n">
-        <v>2283.929427793149</v>
+        <v>582.9878246480171</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1282.312483279972</v>
+        <v>815.7281126045418</v>
       </c>
       <c r="C32" t="n">
-        <v>855.4117532932721</v>
+        <v>815.7281126045418</v>
       </c>
       <c r="D32" t="n">
-        <v>855.4117532932721</v>
+        <v>815.7281126045418</v>
       </c>
       <c r="E32" t="n">
-        <v>855.4117532932721</v>
+        <v>815.7281126045418</v>
       </c>
       <c r="F32" t="n">
         <v>726.4881487176426</v>
@@ -6700,13 +6700,13 @@
         <v>103.1440473010161</v>
       </c>
       <c r="J32" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K32" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L32" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M32" t="n">
         <v>1196.576905080624</v>
@@ -6727,25 +6727,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S32" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T32" t="n">
-        <v>2510.272196103408</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="U32" t="n">
-        <v>2510.272196103408</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V32" t="n">
-        <v>2510.272196103408</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="W32" t="n">
-        <v>2113.880846403755</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="X32" t="n">
-        <v>1702.160847571502</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="Y32" t="n">
-        <v>1702.160847571502</v>
+        <v>1235.576476896072</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1679.707041483854</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="C34" t="n">
-        <v>1679.707041483854</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="D34" t="n">
-        <v>1679.707041483854</v>
+        <v>516.2348560014422</v>
       </c>
       <c r="E34" t="n">
-        <v>1679.707041483854</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="F34" t="n">
-        <v>1679.707041483854</v>
+        <v>350.0266501542957</v>
       </c>
       <c r="G34" t="n">
-        <v>1679.707041483854</v>
+        <v>184.80416897444</v>
       </c>
       <c r="H34" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I34" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J34" t="n">
-        <v>1730.959538900021</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K34" t="n">
-        <v>1828.001532539751</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L34" t="n">
-        <v>1957.041566136168</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M34" t="n">
-        <v>2093.625659805623</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N34" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O34" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P34" t="n">
-        <v>2449.745079574047</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q34" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R34" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S34" t="n">
-        <v>2510.272196103408</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T34" t="n">
-        <v>2510.272196103408</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="U34" t="n">
-        <v>2510.272196103408</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="V34" t="n">
-        <v>2423.466110175793</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="W34" t="n">
-        <v>2148.613706348307</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="X34" t="n">
-        <v>1906.049809794112</v>
+        <v>679.5516288746715</v>
       </c>
       <c r="Y34" t="n">
-        <v>1679.707041483854</v>
+        <v>679.5516288746715</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1125.712951188653</v>
+        <v>1576.681499519342</v>
       </c>
       <c r="C35" t="n">
-        <v>1125.712951188653</v>
+        <v>1149.780769532642</v>
       </c>
       <c r="D35" t="n">
-        <v>1125.712951188653</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="E35" t="n">
-        <v>1125.712951188653</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F35" t="n">
-        <v>700.5887693780533</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G35" t="n">
-        <v>298.5559216803623</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H35" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I35" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010166</v>
       </c>
       <c r="J35" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853083</v>
       </c>
       <c r="K35" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998227</v>
       </c>
       <c r="L35" t="n">
-        <v>836.7412585230809</v>
+        <v>836.7412585230815</v>
       </c>
       <c r="M35" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N35" t="n">
         <v>1562.984812457614</v>
@@ -6955,16 +6955,16 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P35" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q35" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R35" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S35" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="T35" t="n">
         <v>2299.442080053587</v>
@@ -6973,16 +6973,16 @@
         <v>2299.442080053587</v>
       </c>
       <c r="V35" t="n">
-        <v>1941.952665179836</v>
+        <v>1941.952665179837</v>
       </c>
       <c r="W35" t="n">
-        <v>1545.561315480183</v>
+        <v>1941.952665179837</v>
       </c>
       <c r="X35" t="n">
-        <v>1545.561315480183</v>
+        <v>1941.952665179837</v>
       </c>
       <c r="Y35" t="n">
-        <v>1545.561315480183</v>
+        <v>1576.681499519342</v>
       </c>
     </row>
     <row r="36">
@@ -6998,19 +6998,19 @@
         <v>486.671896462798</v>
       </c>
       <c r="D36" t="n">
-        <v>382.8319379780831</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E36" t="n">
-        <v>278.1300042510203</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F36" t="n">
-        <v>184.4841739339245</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G36" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H36" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I36" t="n">
         <v>75.83346633145928</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1851.199562526889</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="C37" t="n">
-        <v>1679.707041483853</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="D37" t="n">
-        <v>1679.707041483853</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="E37" t="n">
-        <v>1679.707041483853</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="F37" t="n">
-        <v>1679.707041483853</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="G37" t="n">
-        <v>1679.707041483853</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="H37" t="n">
-        <v>1679.707041483853</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I37" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J37" t="n">
-        <v>1730.95953890002</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K37" t="n">
-        <v>1828.00153253975</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L37" t="n">
-        <v>1957.041566136167</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M37" t="n">
-        <v>2093.625659805622</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N37" t="n">
-        <v>2228.238936967794</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O37" t="n">
-        <v>2349.275209268218</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P37" t="n">
-        <v>2449.745079574046</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q37" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R37" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S37" t="n">
-        <v>2510.272196103407</v>
+        <v>865.0215548074714</v>
       </c>
       <c r="T37" t="n">
-        <v>2510.272196103407</v>
+        <v>865.0215548074714</v>
       </c>
       <c r="U37" t="n">
-        <v>2510.272196103407</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="V37" t="n">
-        <v>2510.272196103407</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="W37" t="n">
-        <v>2510.272196103407</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="X37" t="n">
-        <v>2267.708299549212</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="Y37" t="n">
-        <v>2041.365531238954</v>
+        <v>584.8935329546435</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>477.106173908768</v>
+        <v>1626.889406622072</v>
       </c>
       <c r="C38" t="n">
-        <v>50.20544392206816</v>
+        <v>1626.889406622072</v>
       </c>
       <c r="D38" t="n">
-        <v>50.20544392206816</v>
+        <v>1203.596785807072</v>
       </c>
       <c r="E38" t="n">
-        <v>50.20544392206816</v>
+        <v>777.6198459549295</v>
       </c>
       <c r="F38" t="n">
-        <v>50.20544392206816</v>
+        <v>352.4956641443297</v>
       </c>
       <c r="G38" t="n">
-        <v>50.20544392206816</v>
+        <v>324.4553010199516</v>
       </c>
       <c r="H38" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I38" t="n">
         <v>103.1440473010161</v>
       </c>
       <c r="J38" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853074</v>
       </c>
       <c r="K38" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998218</v>
       </c>
       <c r="L38" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230807</v>
       </c>
       <c r="M38" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N38" t="n">
-        <v>1562.984812457614</v>
+        <v>1562.984812457613</v>
       </c>
       <c r="O38" t="n">
-        <v>1906.806429336002</v>
+        <v>1906.806429336001</v>
       </c>
       <c r="P38" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q38" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R38" t="n">
-        <v>2510.272196103408</v>
+        <v>2510.272196103407</v>
       </c>
       <c r="S38" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="T38" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="U38" t="n">
-        <v>2467.892571651064</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="V38" t="n">
-        <v>2110.403156777314</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="W38" t="n">
-        <v>1714.01180707766</v>
+        <v>2458.457769745854</v>
       </c>
       <c r="X38" t="n">
-        <v>1302.291808245408</v>
+        <v>2046.737770913602</v>
       </c>
       <c r="Y38" t="n">
-        <v>896.9545382002981</v>
+        <v>2046.737770913602</v>
       </c>
     </row>
     <row r="39">
@@ -7235,19 +7235,19 @@
         <v>486.671896462798</v>
       </c>
       <c r="D39" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E39" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F39" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G39" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662166</v>
       </c>
       <c r="H39" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="I39" t="n">
         <v>75.83346633145928</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>880.7705985416225</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="C40" t="n">
-        <v>708.7980354205384</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="D40" t="n">
-        <v>688.0966302268818</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="E40" t="n">
-        <v>521.8884243797353</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0266501542957</v>
+        <v>276.674068656796</v>
       </c>
       <c r="G40" t="n">
-        <v>184.80416897444</v>
+        <v>253.4628459276413</v>
       </c>
       <c r="H40" t="n">
-        <v>50.20544392206816</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I40" t="n">
-        <v>50.20544392206816</v>
+        <v>50.20544392206814</v>
       </c>
       <c r="J40" t="n">
         <v>101.4579413382349</v>
@@ -7359,25 +7359,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S40" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T40" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="U40" t="n">
-        <v>880.7705985416225</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="V40" t="n">
-        <v>880.7705985416225</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="W40" t="n">
-        <v>880.7705985416225</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="X40" t="n">
-        <v>880.7705985416225</v>
+        <v>448.5358428822355</v>
       </c>
       <c r="Y40" t="n">
-        <v>880.7705985416225</v>
+        <v>448.5358428822355</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1726.632034097501</v>
+        <v>1780.438993227766</v>
       </c>
       <c r="C41" t="n">
-        <v>1726.632034097501</v>
+        <v>1353.538263241066</v>
       </c>
       <c r="D41" t="n">
-        <v>1303.339413282501</v>
+        <v>930.2456424260665</v>
       </c>
       <c r="E41" t="n">
-        <v>877.3624734303589</v>
+        <v>504.2687025739241</v>
       </c>
       <c r="F41" t="n">
-        <v>452.2382916197591</v>
+        <v>79.14452076332429</v>
       </c>
       <c r="G41" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H41" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I41" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010166</v>
       </c>
       <c r="J41" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853083</v>
       </c>
       <c r="K41" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998227</v>
       </c>
       <c r="L41" t="n">
-        <v>836.7412585230811</v>
+        <v>836.7412585230816</v>
       </c>
       <c r="M41" t="n">
         <v>1196.576905080624</v>
@@ -7429,34 +7429,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P41" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q41" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R41" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S41" t="n">
-        <v>2458.457769745854</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T41" t="n">
-        <v>2342.291861197811</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U41" t="n">
-        <v>2084.121448971252</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V41" t="n">
-        <v>1726.632034097501</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="W41" t="n">
-        <v>1726.632034097501</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="X41" t="n">
-        <v>1726.632034097501</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="Y41" t="n">
-        <v>1726.632034097501</v>
+        <v>2200.287357519296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.1777999452933</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C42" t="n">
-        <v>486.671896462798</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D42" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780834</v>
       </c>
       <c r="E42" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510206</v>
       </c>
       <c r="F42" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339248</v>
       </c>
       <c r="G42" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662169</v>
       </c>
       <c r="H42" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I42" t="n">
-        <v>75.83346633145928</v>
+        <v>75.83346633145933</v>
       </c>
       <c r="J42" t="n">
-        <v>169.6881981570805</v>
+        <v>169.6881981570806</v>
       </c>
       <c r="K42" t="n">
-        <v>342.8010428266099</v>
+        <v>342.8010428266101</v>
       </c>
       <c r="L42" t="n">
-        <v>583.100038874436</v>
+        <v>583.1000388744363</v>
       </c>
       <c r="M42" t="n">
-        <v>866.66312416883</v>
+        <v>866.6631241688304</v>
       </c>
       <c r="N42" t="n">
-        <v>1160.072685361481</v>
+        <v>1160.072685361482</v>
       </c>
       <c r="O42" t="n">
         <v>1424.874394922369</v>
@@ -7511,10 +7511,10 @@
         <v>1634.259488911545</v>
       </c>
       <c r="Q42" t="n">
-        <v>1766.116009761532</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R42" t="n">
-        <v>1817.767364655853</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S42" t="n">
         <v>1759.362893661493</v>
@@ -7523,19 +7523,19 @@
         <v>1622.456576507551</v>
       </c>
       <c r="U42" t="n">
-        <v>1437.769560272917</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V42" t="n">
-        <v>1232.796421412183</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W42" t="n">
         <v>1036.275044245401</v>
       </c>
       <c r="X42" t="n">
-        <v>872.7976980120636</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y42" t="n">
-        <v>733.104809365356</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.1780070431521</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="C43" t="n">
-        <v>50.20544392206814</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="D43" t="n">
-        <v>50.20544392206814</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="E43" t="n">
-        <v>50.20544392206814</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="F43" t="n">
-        <v>50.20544392206814</v>
+        <v>418.6853271074971</v>
       </c>
       <c r="G43" t="n">
-        <v>50.20544392206814</v>
+        <v>253.4628459276414</v>
       </c>
       <c r="H43" t="n">
-        <v>50.20544392206814</v>
+        <v>118.8641208752695</v>
       </c>
       <c r="I43" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J43" t="n">
         <v>101.4579413382349</v>
@@ -7596,25 +7596,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S43" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T43" t="n">
-        <v>880.7705985416225</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="U43" t="n">
-        <v>880.7705985416225</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="V43" t="n">
-        <v>687.1963795827048</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="W43" t="n">
-        <v>412.3439757552178</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="X43" t="n">
-        <v>412.3439757552178</v>
+        <v>584.8935329546435</v>
       </c>
       <c r="Y43" t="n">
-        <v>412.3439757552178</v>
+        <v>584.8935329546435</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1273.366562934515</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="C44" t="n">
-        <v>846.465832947815</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="D44" t="n">
-        <v>423.1732121328153</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="E44" t="n">
-        <v>423.1732121328153</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1732121328153</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G44" t="n">
-        <v>50.20544392206814</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H44" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I44" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010159</v>
       </c>
       <c r="J44" t="n">
         <v>265.8602102853079</v>
       </c>
       <c r="K44" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998224</v>
       </c>
       <c r="L44" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230811</v>
       </c>
       <c r="M44" t="n">
         <v>1196.576905080623</v>
@@ -7666,34 +7666,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P44" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q44" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R44" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S44" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="T44" t="n">
-        <v>2510.272196103407</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="U44" t="n">
-        <v>2510.272196103407</v>
+        <v>2041.271667827028</v>
       </c>
       <c r="V44" t="n">
-        <v>2510.272196103407</v>
+        <v>1683.782252953278</v>
       </c>
       <c r="W44" t="n">
-        <v>2510.272196103407</v>
+        <v>1287.390903253625</v>
       </c>
       <c r="X44" t="n">
-        <v>2098.552197271154</v>
+        <v>1287.390903253625</v>
       </c>
       <c r="Y44" t="n">
-        <v>1693.214927226045</v>
+        <v>882.053633208515</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>184.4841739339245</v>
       </c>
       <c r="G45" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H45" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I45" t="n">
         <v>75.83346633145928</v>
@@ -7733,10 +7733,10 @@
         <v>342.8010428266099</v>
       </c>
       <c r="L45" t="n">
-        <v>583.1000388744359</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M45" t="n">
-        <v>866.6631241688299</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N45" t="n">
         <v>1160.072685361481</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>654.4278302313645</v>
+        <v>385.383991020737</v>
       </c>
       <c r="C46" t="n">
-        <v>654.4278302313645</v>
+        <v>385.383991020737</v>
       </c>
       <c r="D46" t="n">
-        <v>491.1110573581352</v>
+        <v>222.0672181475077</v>
       </c>
       <c r="E46" t="n">
-        <v>324.9028515109887</v>
+        <v>222.0672181475077</v>
       </c>
       <c r="F46" t="n">
-        <v>153.0410772855492</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G46" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H46" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I46" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J46" t="n">
         <v>101.4579413382349</v>
@@ -7833,25 +7833,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S46" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T46" t="n">
-        <v>880.7705985416225</v>
+        <v>489.7446042989517</v>
       </c>
       <c r="U46" t="n">
-        <v>880.7705985416225</v>
+        <v>385.383991020737</v>
       </c>
       <c r="V46" t="n">
-        <v>880.7705985416225</v>
+        <v>385.383991020737</v>
       </c>
       <c r="W46" t="n">
-        <v>880.7705985416225</v>
+        <v>385.383991020737</v>
       </c>
       <c r="X46" t="n">
-        <v>880.7705985416225</v>
+        <v>385.383991020737</v>
       </c>
       <c r="Y46" t="n">
-        <v>654.4278302313645</v>
+        <v>385.383991020737</v>
       </c>
     </row>
   </sheetData>
@@ -22558,7 +22558,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>404.8262549488134</v>
       </c>
       <c r="G2" t="n">
         <v>399.9846413962156</v>
@@ -22567,10 +22567,10 @@
         <v>291.7043547567607</v>
       </c>
       <c r="I2" t="n">
-        <v>22.55690342461459</v>
+        <v>22.55690342461458</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.021643902788</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.536891551628969</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>15.49488714450009</v>
       </c>
       <c r="S2" t="n">
-        <v>78.01770889792074</v>
+        <v>96.23601616822083</v>
       </c>
       <c r="T2" t="n">
-        <v>199.1364724422805</v>
+        <v>217.3547797125806</v>
       </c>
       <c r="U2" t="n">
-        <v>242.5349081632701</v>
+        <v>255.7464778783334</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>335.6962134547129</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>374.2091289323565</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>389.3844915736301</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6377393258621</v>
+        <v>109.419432055562</v>
       </c>
       <c r="C3" t="n">
         <v>116.3308444476703</v>
@@ -22640,16 +22640,16 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>91.74485773637684</v>
+        <v>92.94681813455406</v>
       </c>
       <c r="H3" t="n">
-        <v>33.01679750036621</v>
+        <v>51.2351047706663</v>
       </c>
       <c r="I3" t="n">
         <v>10.44271547525859</v>
       </c>
       <c r="J3" t="n">
-        <v>4.888458418784966</v>
+        <v>3.686498020607716</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,16 +22676,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>59.20159478341719</v>
+        <v>59.20159478341716</v>
       </c>
       <c r="T3" t="n">
-        <v>121.5720560939172</v>
+        <v>139.7903633642173</v>
       </c>
       <c r="U3" t="n">
         <v>182.9095657031111</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>184.7051002018263</v>
       </c>
       <c r="W3" t="n">
         <v>194.556163395115</v>
@@ -22719,7 +22719,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.4548824832565</v>
+        <v>163.8657586413259</v>
       </c>
       <c r="H4" t="n">
         <v>141.1178681715301</v>
@@ -22728,25 +22728,25 @@
         <v>94.57521008439309</v>
       </c>
       <c r="J4" t="n">
-        <v>10.77286693432815</v>
+        <v>10.77286693432814</v>
       </c>
       <c r="K4" t="n">
-        <v>4.755254677277751</v>
+        <v>4.755254677277744</v>
       </c>
       <c r="L4" t="n">
-        <v>1.176308884163522</v>
+        <v>1.176308884163515</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7054336060544593</v>
+        <v>0.7054336060544522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.189895604189339</v>
+        <v>2.779019446119918</v>
       </c>
       <c r="P4" t="n">
-        <v>5.506790124936625</v>
+        <v>5.506790124936618</v>
       </c>
       <c r="Q4" t="n">
         <v>12.9368725197517</v>
@@ -22786,16 +22786,16 @@
         <v>397.4315733783146</v>
       </c>
       <c r="C5" t="n">
-        <v>404.4134154165328</v>
+        <v>406.5850376431525</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>403.4988631833209</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>402.6546327221936</v>
       </c>
       <c r="G5" t="n">
         <v>399.9846413962156</v>
@@ -22804,10 +22804,10 @@
         <v>291.7043547567607</v>
       </c>
       <c r="I5" t="n">
-        <v>22.55690342461459</v>
+        <v>22.55690342461458</v>
       </c>
       <c r="J5" t="n">
-        <v>3.021643902788007</v>
+        <v>3.021643902788</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.536891551628983</v>
+        <v>2.536891551628969</v>
       </c>
       <c r="R5" t="n">
         <v>15.49488714450009</v>
@@ -22849,10 +22849,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>391.5561138002499</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.0655900743585</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22871,22 +22871,22 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>85.43660711949205</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>74.49106474362479</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>74.72851086425398</v>
+        <v>74.72851086425393</v>
       </c>
       <c r="H6" t="n">
-        <v>40.07687814577095</v>
+        <v>51.2351047706663</v>
       </c>
       <c r="I6" t="n">
         <v>10.44271547525859</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4.888458418784959</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,22 +22907,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.504190801070983</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>13.34053384443212</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>77.41990205371728</v>
+        <v>59.20159478341716</v>
       </c>
       <c r="T6" t="n">
-        <v>139.7903633642173</v>
+        <v>138.58840296604</v>
       </c>
       <c r="U6" t="n">
         <v>182.9095657031111</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>184.7051002018263</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>187.6751851830144</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -22965,25 +22965,25 @@
         <v>94.57521008439309</v>
       </c>
       <c r="J7" t="n">
-        <v>10.77286693432815</v>
+        <v>10.77286693432814</v>
       </c>
       <c r="K7" t="n">
-        <v>4.755254677277751</v>
+        <v>4.755254677277744</v>
       </c>
       <c r="L7" t="n">
-        <v>1.176308884163522</v>
+        <v>1.176308884163515</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1163097641238739</v>
+        <v>0.7054336060544522</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2.779019446119925</v>
+        <v>2.779019446119918</v>
       </c>
       <c r="P7" t="n">
-        <v>5.506790124936625</v>
+        <v>5.506790124936618</v>
       </c>
       <c r="Q7" t="n">
         <v>12.9368725197517</v>
@@ -23032,19 +23032,19 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>398.3637012327545</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>376.4529045982248</v>
+        <v>399.961149212524</v>
       </c>
       <c r="H8" t="n">
-        <v>267.9690901571059</v>
+        <v>291.4637654305288</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>21.65122101284321</v>
       </c>
       <c r="J8" t="n">
-        <v>1.152398102006437</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1585647136001356</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.11143217127992</v>
+        <v>14.01919626068105</v>
       </c>
       <c r="S8" t="n">
-        <v>95.73414793822852</v>
+        <v>71.83819335543281</v>
       </c>
       <c r="T8" t="n">
-        <v>217.2583703575925</v>
+        <v>193.3894480015554</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7447159712177</v>
+        <v>231.882103826723</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -23086,7 +23086,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>387.6124877096943</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -23108,22 +23108,22 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
-        <v>80.14520143074775</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F9" t="n">
-        <v>69.19965905488048</v>
+        <v>68.84687733700976</v>
       </c>
       <c r="G9" t="n">
-        <v>69.42532138281298</v>
+        <v>92.93424870815717</v>
       </c>
       <c r="H9" t="n">
-        <v>40.45094452691863</v>
+        <v>51.11371057362263</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.00995232957614</v>
       </c>
       <c r="J9" t="n">
-        <v>3.775148425455178</v>
+        <v>3.700923269594423</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>12.60890503121191</v>
+        <v>12.56012682656195</v>
       </c>
       <c r="S9" t="n">
-        <v>77.20102327270656</v>
+        <v>53.32393579438622</v>
       </c>
       <c r="T9" t="n">
-        <v>139.7428664103214</v>
+        <v>115.8772050782726</v>
       </c>
       <c r="U9" t="n">
-        <v>182.9087904535916</v>
+        <v>161.8906534557371</v>
       </c>
       <c r="V9" t="n">
         <v>202.9234074721264</v>
@@ -23193,19 +23193,19 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.4450033473029</v>
+        <v>160.9645601023255</v>
       </c>
       <c r="H10" t="n">
-        <v>141.0300336718695</v>
+        <v>141.0241776843491</v>
       </c>
       <c r="I10" t="n">
-        <v>91.09428449497301</v>
+        <v>94.25831015433721</v>
       </c>
       <c r="J10" t="n">
-        <v>10.07441202240545</v>
+        <v>10.02784554495553</v>
       </c>
       <c r="K10" t="n">
-        <v>3.607478700117916</v>
+        <v>3.530955673011054</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,25 +23217,25 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.382648484235649</v>
+        <v>1.289551455639597</v>
       </c>
       <c r="P10" t="n">
-        <v>4.311953536506703</v>
+        <v>4.232292945534113</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.10962959912422</v>
+        <v>12.05447673506465</v>
       </c>
       <c r="R10" t="n">
-        <v>39.85081002223924</v>
+        <v>39.82119477246847</v>
       </c>
       <c r="S10" t="n">
-        <v>165.8301206431674</v>
+        <v>165.8186421891014</v>
       </c>
       <c r="T10" t="n">
-        <v>240.2676231067096</v>
+        <v>240.2648088795781</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3744551058947</v>
+        <v>277.3744191795909</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -23263,19 +23263,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>330.9660141388482</v>
       </c>
       <c r="E11" t="n">
         <v>344.1242566974053</v>
       </c>
       <c r="F11" t="n">
-        <v>332.7792595244923</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>311.6442908843243</v>
+        <v>399.7379713523258</v>
       </c>
       <c r="H11" t="n">
-        <v>201.0844647017716</v>
+        <v>289.1781451697731</v>
       </c>
       <c r="I11" t="n">
         <v>13.04715655754853</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>90.61502254307932</v>
+        <v>2.521342075077811</v>
       </c>
       <c r="T11" t="n">
         <v>216.2749815954525</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>313.190216876657</v>
       </c>
     </row>
     <row r="12">
@@ -23339,16 +23339,16 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C12" t="n">
-        <v>28.23716397966876</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D12" t="n">
-        <v>14.70787843186632</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E12" t="n">
-        <v>15.56123392179065</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F12" t="n">
-        <v>79.82565667122049</v>
+        <v>79.82565667122054</v>
       </c>
       <c r="G12" t="n">
         <v>92.81483802569352</v>
@@ -23390,16 +23390,16 @@
         <v>74.96842941764551</v>
       </c>
       <c r="T12" t="n">
-        <v>139.2583909078891</v>
+        <v>51.16471043988756</v>
       </c>
       <c r="U12" t="n">
-        <v>182.9008828012124</v>
+        <v>94.80720233321088</v>
       </c>
       <c r="V12" t="n">
         <v>202.9234074721264</v>
       </c>
       <c r="W12" t="n">
-        <v>194.556163395115</v>
+        <v>106.4624829271135</v>
       </c>
       <c r="X12" t="n">
         <v>161.8425727710037</v>
@@ -23427,7 +23427,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>93.41862727109454</v>
       </c>
       <c r="G13" t="n">
         <v>164.3442347934871</v>
@@ -23466,7 +23466,7 @@
         <v>35.31988941157481</v>
       </c>
       <c r="S13" t="n">
-        <v>87.34947036139543</v>
+        <v>164.0739995734861</v>
       </c>
       <c r="T13" t="n">
         <v>239.8370665585874</v>
@@ -23506,13 +23506,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>332.7792595244922</v>
       </c>
       <c r="G14" t="n">
-        <v>399.7379713523258</v>
+        <v>322.1450575961101</v>
       </c>
       <c r="H14" t="n">
-        <v>289.1781451697731</v>
+        <v>201.0844647017716</v>
       </c>
       <c r="I14" t="n">
         <v>13.04715655754853</v>
@@ -23548,13 +23548,13 @@
         <v>2.521342075077811</v>
       </c>
       <c r="T14" t="n">
-        <v>128.181301127451</v>
+        <v>216.2749815954525</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1338305186065</v>
+        <v>255.7267442748222</v>
       </c>
       <c r="V14" t="n">
-        <v>265.8208402570115</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>114.7540239831577</v>
+        <v>39.54405885786056</v>
       </c>
       <c r="C15" t="n">
         <v>28.23716397966875</v>
@@ -23582,7 +23582,7 @@
         <v>14.70787843186631</v>
       </c>
       <c r="E15" t="n">
-        <v>15.56123392179063</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F15" t="n">
         <v>92.70937201392488</v>
@@ -23642,7 +23642,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y15" t="n">
-        <v>138.2959597602405</v>
+        <v>125.4122444175362</v>
       </c>
     </row>
     <row r="16">
@@ -23670,7 +23670,7 @@
         <v>164.3442347934871</v>
       </c>
       <c r="H16" t="n">
-        <v>63.40958040857992</v>
+        <v>63.40958040857991</v>
       </c>
       <c r="I16" t="n">
         <v>91.24773228659839</v>
@@ -23734,7 +23734,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23743,13 +23743,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>39.98074067448283</v>
+        <v>127.2518999267414</v>
       </c>
       <c r="G17" t="n">
-        <v>398.075359501527</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>272.1509215527803</v>
+        <v>272.160537938658</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.72825499300271</v>
+        <v>52.74965212647632</v>
       </c>
       <c r="T17" t="n">
-        <v>208.9968982185809</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.5937353267583</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23822,13 +23822,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>55.15078071826044</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>41.37387781201202</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>14.60098876500038</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23904,13 +23904,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.5984443546759</v>
+        <v>163.5988655512729</v>
       </c>
       <c r="H19" t="n">
-        <v>133.5033546283313</v>
+        <v>24.84479169109659</v>
       </c>
       <c r="I19" t="n">
-        <v>68.8197798176227</v>
+        <v>68.83244634801181</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.786439317392919</v>
+        <v>1.805377848017045</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>151.0842465068989</v>
       </c>
       <c r="T19" t="n">
-        <v>236.6505074109398</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3282791608423</v>
+        <v>277.3283021352022</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>147.3423416938057</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>309.7984465834534</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.075359501527</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>272.1509215527803</v>
+        <v>34.63280243155296</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.72825499300271</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.0010086278747</v>
       </c>
       <c r="U20" t="n">
-        <v>255.5937353267583</v>
+        <v>255.5938104456032</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>41.36902567056268</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>13.78175504769755</v>
+        <v>55.97486657701234</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -24141,13 +24141,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.5984443546759</v>
+        <v>163.5988655512729</v>
       </c>
       <c r="H22" t="n">
-        <v>133.5033546283313</v>
+        <v>133.5070994489845</v>
       </c>
       <c r="I22" t="n">
-        <v>68.8197798176227</v>
+        <v>68.83244634801181</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.786439317392919</v>
+        <v>1.805377848017045</v>
       </c>
       <c r="S22" t="n">
-        <v>151.0769061989316</v>
+        <v>101.1094053501583</v>
       </c>
       <c r="T22" t="n">
-        <v>236.6505074109398</v>
+        <v>236.6523070691268</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3282791608423</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.3447761220295</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.012519220714</v>
+        <v>369.3628331478713</v>
       </c>
       <c r="H23" t="n">
         <v>271.5073585269046</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>51.01925419293985</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24369,16 +24369,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>133.2527378018481</v>
@@ -24414,19 +24414,19 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S25" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>236.5300678317505</v>
+        <v>54.65621652811436</v>
       </c>
       <c r="U25" t="n">
-        <v>6.065471068204619</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>62.50851573654569</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.012519220714</v>
+        <v>113.7741250435774</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S28" t="n">
-        <v>150.5856664684936</v>
+        <v>19.35097668188152</v>
       </c>
       <c r="T28" t="n">
         <v>236.5300678317505</v>
@@ -24663,13 +24663,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>102.3262839566067</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>318.1593924405078</v>
       </c>
       <c r="G29" t="n">
-        <v>251.1081317864125</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>95.02626434047551</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>163.5702563680571</v>
       </c>
       <c r="H31" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S31" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.5300678317505</v>
+        <v>92.31078814557475</v>
       </c>
       <c r="U31" t="n">
         <v>277.3267416342995</v>
@@ -24906,7 +24906,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24928,7 +24928,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>293.2385714626205</v>
+        <v>332.5253757444635</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25080,19 +25080,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>67.97209018366931</v>
@@ -25125,25 +25125,25 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S34" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.5300678317505</v>
+        <v>187.9089543299626</v>
       </c>
       <c r="U34" t="n">
         <v>277.3267416342995</v>
       </c>
       <c r="V34" t="n">
-        <v>192.9563276497132</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>25.64038554619341</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>39.66544334076906</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4752416572677021</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S37" t="n">
-        <v>150.5856664684936</v>
+        <v>134.9941131716841</v>
       </c>
       <c r="T37" t="n">
         <v>236.5300678317505</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -25377,10 +25377,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.012519220714</v>
+        <v>370.2525597275797</v>
       </c>
       <c r="H38" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U38" t="n">
-        <v>213.632879896473</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>141.1892140027769</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>140.591145866194</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S40" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>236.5300678317505</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>369.3628331478704</v>
       </c>
       <c r="H41" t="n">
         <v>271.5073585269046</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>93.71756542675892</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S43" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>236.5300678317505</v>
+        <v>94.19743936913494</v>
       </c>
       <c r="U43" t="n">
         <v>277.3267416342995</v>
       </c>
       <c r="V43" t="n">
-        <v>87.25587594872292</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>261.6400510026511</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25879,10 +25879,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>28.77442869207437</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>61.76297933821093</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H46" t="n">
         <v>133.2527378018481</v>
@@ -26073,13 +26073,13 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S46" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3267416342995</v>
+        <v>174.009734488867</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26091,7 +26091,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>60486.38092478197</v>
+        <v>60486.380924782</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>60486.38092478197</v>
+        <v>60486.380924782</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>65066.90681820187</v>
+        <v>65366.68805500839</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>431326.5827499141</v>
+        <v>431144.6314633572</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>431326.5827499141</v>
+        <v>431144.6314633572</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>443503.415296834</v>
+        <v>443503.4152968341</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>443503.4152968341</v>
+        <v>443503.415296834</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>443503.415296834</v>
+        <v>443503.4152968338</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>443503.4152968338</v>
+        <v>443503.4152968341</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20937.59339703991</v>
+        <v>20937.59339703992</v>
       </c>
       <c r="C2" t="n">
         <v>20937.59339703992</v>
       </c>
       <c r="D2" t="n">
-        <v>22523.1600524545</v>
+        <v>22626.93048057984</v>
       </c>
       <c r="E2" t="n">
-        <v>37769.54258154908</v>
+        <v>37769.54258154913</v>
       </c>
       <c r="F2" t="n">
-        <v>37769.54258154911</v>
+        <v>37769.5425815491</v>
       </c>
       <c r="G2" t="n">
-        <v>149305.3555672779</v>
+        <v>149242.3724296237</v>
       </c>
       <c r="H2" t="n">
-        <v>149305.355567278</v>
+        <v>149242.3724296237</v>
       </c>
       <c r="I2" t="n">
-        <v>153520.4129873656</v>
+        <v>153520.4129873655</v>
       </c>
       <c r="J2" t="n">
         <v>153520.4129873655</v>
@@ -26343,13 +26343,13 @@
         <v>153520.4129873655</v>
       </c>
       <c r="L2" t="n">
+        <v>153520.4129873656</v>
+      </c>
+      <c r="M2" t="n">
         <v>153520.4129873655</v>
       </c>
-      <c r="M2" t="n">
-        <v>153520.4129873654</v>
-      </c>
       <c r="N2" t="n">
-        <v>153520.4129873655</v>
+        <v>153520.4129873656</v>
       </c>
       <c r="O2" t="n">
         <v>153520.4129873656</v>
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80658.96448328666</v>
+        <v>80658.96448328669</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6335.473445957319</v>
+        <v>6757.863891381548</v>
       </c>
       <c r="E3" t="n">
-        <v>64178.10880470012</v>
+        <v>63779.33239233211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>463992.822644402</v>
+        <v>463730.2655197552</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17023.19029458227</v>
+        <v>17277.55787034281</v>
       </c>
       <c r="J3" t="n">
-        <v>4766.710787430337</v>
+        <v>4766.710787430463</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1339.207157169983</v>
+        <v>1428.493034927625</v>
       </c>
       <c r="M3" t="n">
-        <v>16094.58303910212</v>
+        <v>16006.6684238819</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>125067.9903041142</v>
+        <v>124996.9083992359</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.22273493796322</v>
+        <v>13.22273493796324</v>
       </c>
       <c r="C4" t="n">
-        <v>13.22273493796322</v>
+        <v>13.22273493796324</v>
       </c>
       <c r="D4" t="n">
-        <v>17.15222569169691</v>
+        <v>17.41872404354268</v>
       </c>
       <c r="E4" t="n">
         <v>62.45231285262344</v>
@@ -26432,34 +26432,34 @@
         <v>62.45231285262344</v>
       </c>
       <c r="G4" t="n">
-        <v>426.5961278544149</v>
+        <v>426.3890608865744</v>
       </c>
       <c r="H4" t="n">
-        <v>426.5961278544149</v>
+        <v>426.3890608865744</v>
       </c>
       <c r="I4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="J4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="K4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="L4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="M4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="N4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="O4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="P4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>36421.91313065494</v>
       </c>
       <c r="D5" t="n">
-        <v>36863.06036917747</v>
+        <v>36892.47196409089</v>
       </c>
       <c r="E5" t="n">
-        <v>8380.365801579235</v>
+        <v>8380.365801579237</v>
       </c>
       <c r="F5" t="n">
         <v>8380.365801579237</v>
       </c>
       <c r="G5" t="n">
-        <v>48994.47502708899</v>
+        <v>48971.4244402167</v>
       </c>
       <c r="H5" t="n">
-        <v>48994.47502708899</v>
+        <v>48971.42444021671</v>
       </c>
       <c r="I5" t="n">
+        <v>50537.10295659395</v>
+      </c>
+      <c r="J5" t="n">
         <v>50537.10295659397</v>
       </c>
-      <c r="J5" t="n">
-        <v>50537.10295659395</v>
-      </c>
       <c r="K5" t="n">
-        <v>50537.10295659397</v>
+        <v>50537.10295659396</v>
       </c>
       <c r="L5" t="n">
         <v>50537.10295659397</v>
       </c>
       <c r="M5" t="n">
+        <v>50537.10295659397</v>
+      </c>
+      <c r="N5" t="n">
         <v>50537.10295659396</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>50537.10295659397</v>
       </c>
-      <c r="O5" t="n">
-        <v>50537.10295659396</v>
-      </c>
       <c r="P5" t="n">
-        <v>50537.10295659396</v>
+        <v>50537.10295659397</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96156.50695183963</v>
+        <v>-97496.29365855068</v>
       </c>
       <c r="C6" t="n">
-        <v>-15497.54246855298</v>
+        <v>-16837.329175264</v>
       </c>
       <c r="D6" t="n">
-        <v>-20692.52598837198</v>
+        <v>-22371.22559962749</v>
       </c>
       <c r="E6" t="n">
-        <v>-34851.38433758289</v>
+        <v>-35698.88380312304</v>
       </c>
       <c r="F6" t="n">
-        <v>29326.72446711725</v>
+        <v>28080.44858920905</v>
       </c>
       <c r="G6" t="n">
-        <v>-364108.5382320676</v>
+        <v>-364512.6889699869</v>
       </c>
       <c r="H6" t="n">
-        <v>99884.28441233459</v>
+        <v>99217.5765497682</v>
       </c>
       <c r="I6" t="n">
-        <v>85519.66594433541</v>
+        <v>84662.08288181001</v>
       </c>
       <c r="J6" t="n">
-        <v>97776.14545148725</v>
+        <v>97172.92996472237</v>
       </c>
       <c r="K6" t="n">
-        <v>102542.8562389176</v>
+        <v>101939.6407521528</v>
       </c>
       <c r="L6" t="n">
-        <v>101203.6490817476</v>
+        <v>100511.1477172252</v>
       </c>
       <c r="M6" t="n">
-        <v>86448.2731998154</v>
+        <v>85932.97232827093</v>
       </c>
       <c r="N6" t="n">
-        <v>102542.8562389176</v>
+        <v>101939.6407521529</v>
       </c>
       <c r="O6" t="n">
-        <v>-22525.1340651965</v>
+        <v>-23057.26764708303</v>
       </c>
       <c r="P6" t="n">
-        <v>102542.8562389177</v>
+        <v>101939.6407521529</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.36880956975661</v>
+        <v>77.36880956975664</v>
       </c>
       <c r="C3" t="n">
-        <v>77.36880956975661</v>
+        <v>77.36880956975664</v>
       </c>
       <c r="D3" t="n">
-        <v>82.84723950768695</v>
+        <v>83.21249026304835</v>
       </c>
       <c r="E3" t="n">
         <v>138.7279829873737</v>
@@ -26752,10 +26752,10 @@
         <v>138.7279829873737</v>
       </c>
       <c r="G3" t="n">
-        <v>552.3026808735638</v>
+        <v>552.0691082152396</v>
       </c>
       <c r="H3" t="n">
-        <v>552.3026808735638</v>
+        <v>552.0691082152396</v>
       </c>
       <c r="I3" t="n">
         <v>567.9342007257877</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="C4" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="D4" t="n">
-        <v>23.50971295904439</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="E4" t="n">
-        <v>88.09368046800149</v>
+        <v>88.09368046800151</v>
       </c>
       <c r="F4" t="n">
         <v>88.09368046800151</v>
       </c>
       <c r="G4" t="n">
-        <v>607.8006017112715</v>
+        <v>607.5052283079684</v>
       </c>
       <c r="H4" t="n">
-        <v>607.8006017112715</v>
+        <v>607.5052283079685</v>
       </c>
       <c r="I4" t="n">
+        <v>627.5680490258517</v>
+      </c>
+      <c r="J4" t="n">
         <v>627.5680490258519</v>
       </c>
-      <c r="J4" t="n">
-        <v>627.5680490258517</v>
-      </c>
       <c r="K4" t="n">
-        <v>627.5680490258519</v>
+        <v>627.5680490258518</v>
       </c>
       <c r="L4" t="n">
         <v>627.5680490258519</v>
       </c>
       <c r="M4" t="n">
+        <v>627.5680490258519</v>
+      </c>
+      <c r="N4" t="n">
         <v>627.5680490258518</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>627.5680490258519</v>
       </c>
-      <c r="O4" t="n">
-        <v>627.5680490258518</v>
-      </c>
       <c r="P4" t="n">
-        <v>627.5680490258518</v>
+        <v>627.5680490258519</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.36880956975661</v>
+        <v>77.36880956975664</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.478429937930343</v>
+        <v>5.843680693291716</v>
       </c>
       <c r="E3" t="n">
-        <v>55.8807434796867</v>
+        <v>55.5154927243253</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>413.5746978861901</v>
+        <v>413.3411252278659</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15.63151985222396</v>
+        <v>15.86509251054815</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.291405688744298</v>
+        <v>5.644187406614996</v>
       </c>
       <c r="E4" t="n">
-        <v>64.5839675089571</v>
+        <v>64.23118579108639</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>519.70692124327</v>
+        <v>519.4115478399669</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>19.76744731458041</v>
+        <v>20.06282071788314</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21830727029986</v>
+        <v>18.21830727030034</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.291405688744298</v>
+        <v>5.64418740661511</v>
       </c>
       <c r="M4" t="n">
-        <v>64.58396750895699</v>
+        <v>64.23118579108643</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>519.7069212432699</v>
+        <v>519.4115478399671</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.291405688744298</v>
+        <v>5.644187406614996</v>
       </c>
       <c r="M4" t="n">
-        <v>64.5839675089571</v>
+        <v>64.23118579108639</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>519.70692124327</v>
+        <v>519.4115478399669</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3110303902301771</v>
+        <v>0.3110303902301772</v>
       </c>
       <c r="H2" t="n">
-        <v>3.185339983944802</v>
+        <v>3.185339983944803</v>
       </c>
       <c r="I2" t="n">
-        <v>11.99099911934891</v>
+        <v>11.99099911934892</v>
       </c>
       <c r="J2" t="n">
         <v>26.39831558279852</v>
       </c>
       <c r="K2" t="n">
-        <v>39.56423200124192</v>
+        <v>39.56423200124193</v>
       </c>
       <c r="L2" t="n">
-        <v>49.08292830624871</v>
+        <v>49.08292830624873</v>
       </c>
       <c r="M2" t="n">
-        <v>54.61421500850462</v>
+        <v>54.61421500850464</v>
       </c>
       <c r="N2" t="n">
-        <v>55.49793010474612</v>
+        <v>55.49793010474614</v>
       </c>
       <c r="O2" t="n">
-        <v>52.40512166189479</v>
+        <v>52.40512166189481</v>
       </c>
       <c r="P2" t="n">
-        <v>44.72655890308729</v>
+        <v>44.7265589030873</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.58778305296906</v>
+        <v>33.58778305296907</v>
       </c>
       <c r="R2" t="n">
         <v>19.53776275029638</v>
       </c>
       <c r="S2" t="n">
-        <v>7.087605017370167</v>
+        <v>7.08760501737017</v>
       </c>
       <c r="T2" t="n">
         <v>1.361535533232601</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02488243121841416</v>
+        <v>0.02488243121841417</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.166415930017967</v>
+        <v>0.1664159300179671</v>
       </c>
       <c r="H3" t="n">
-        <v>1.607227534647208</v>
+        <v>1.607227534647209</v>
       </c>
       <c r="I3" t="n">
-        <v>5.72967127474141</v>
+        <v>5.729671274741412</v>
       </c>
       <c r="J3" t="n">
-        <v>15.72265591454837</v>
+        <v>15.72265591454838</v>
       </c>
       <c r="K3" t="n">
-        <v>26.87252322575216</v>
+        <v>26.87252322575217</v>
       </c>
       <c r="L3" t="n">
-        <v>36.13342375236605</v>
+        <v>36.13342375236606</v>
       </c>
       <c r="M3" t="n">
-        <v>32.49398676858092</v>
+        <v>41.3150877826281</v>
       </c>
       <c r="N3" t="n">
-        <v>39.56133548384176</v>
+        <v>39.56133548384178</v>
       </c>
       <c r="O3" t="n">
-        <v>39.5945831389678</v>
+        <v>39.59458313896781</v>
       </c>
       <c r="P3" t="n">
-        <v>31.77814368913268</v>
+        <v>22.95704267508554</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.24284748790751</v>
+        <v>21.24284748790752</v>
       </c>
       <c r="R3" t="n">
         <v>10.33238554971203</v>
       </c>
       <c r="S3" t="n">
-        <v>3.091102910640745</v>
+        <v>3.091102910640747</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6707729810811914</v>
+        <v>0.6707729810811918</v>
       </c>
       <c r="U3" t="n">
         <v>0.01094841644855047</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1395175254536594</v>
+        <v>0.1395175254536595</v>
       </c>
       <c r="H4" t="n">
-        <v>1.240437635397082</v>
+        <v>1.240437635397083</v>
       </c>
       <c r="I4" t="n">
-        <v>4.195672492733687</v>
+        <v>4.195672492733689</v>
       </c>
       <c r="J4" t="n">
-        <v>9.863889049573721</v>
+        <v>9.863889049573725</v>
       </c>
       <c r="K4" t="n">
         <v>16.20939977543425</v>
       </c>
       <c r="L4" t="n">
-        <v>20.7424510115377</v>
+        <v>20.74245101153771</v>
       </c>
       <c r="M4" t="n">
-        <v>21.87000628543136</v>
+        <v>21.87000628543137</v>
       </c>
       <c r="N4" t="n">
-        <v>21.34998641783137</v>
+        <v>21.34998641783138</v>
       </c>
       <c r="O4" t="n">
         <v>19.72016805230453</v>
       </c>
       <c r="P4" t="n">
-        <v>16.87401053304986</v>
+        <v>16.87401053304987</v>
       </c>
       <c r="Q4" t="n">
         <v>11.68269024503325</v>
       </c>
       <c r="R4" t="n">
-        <v>6.273215280852722</v>
+        <v>6.273215280852725</v>
       </c>
       <c r="S4" t="n">
-        <v>2.431409966315137</v>
+        <v>2.431409966315138</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5961203360292719</v>
+        <v>0.5961203360292722</v>
       </c>
       <c r="U4" t="n">
-        <v>0.007610046842926888</v>
+        <v>0.00761004684292689</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3110303902301771</v>
+        <v>0.3110303902301772</v>
       </c>
       <c r="H5" t="n">
-        <v>3.185339983944802</v>
+        <v>3.185339983944803</v>
       </c>
       <c r="I5" t="n">
-        <v>11.99099911934891</v>
+        <v>11.99099911934892</v>
       </c>
       <c r="J5" t="n">
         <v>26.39831558279852</v>
       </c>
       <c r="K5" t="n">
-        <v>39.56423200124192</v>
+        <v>39.56423200124193</v>
       </c>
       <c r="L5" t="n">
-        <v>49.08292830624871</v>
+        <v>49.08292830624873</v>
       </c>
       <c r="M5" t="n">
-        <v>54.61421500850462</v>
+        <v>54.61421500850464</v>
       </c>
       <c r="N5" t="n">
-        <v>55.49793010474612</v>
+        <v>55.49793010474614</v>
       </c>
       <c r="O5" t="n">
-        <v>52.40512166189479</v>
+        <v>52.40512166189481</v>
       </c>
       <c r="P5" t="n">
-        <v>44.72655890308729</v>
+        <v>44.7265589030873</v>
       </c>
       <c r="Q5" t="n">
-        <v>33.58778305296906</v>
+        <v>33.58778305296907</v>
       </c>
       <c r="R5" t="n">
         <v>19.53776275029638</v>
       </c>
       <c r="S5" t="n">
-        <v>7.087605017370167</v>
+        <v>7.08760501737017</v>
       </c>
       <c r="T5" t="n">
         <v>1.361535533232601</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02488243121841416</v>
+        <v>0.02488243121841417</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.166415930017967</v>
+        <v>0.1664159300179671</v>
       </c>
       <c r="H6" t="n">
-        <v>1.607227534647208</v>
+        <v>1.607227534647209</v>
       </c>
       <c r="I6" t="n">
-        <v>5.72967127474141</v>
+        <v>5.729671274741412</v>
       </c>
       <c r="J6" t="n">
-        <v>15.72265591454837</v>
+        <v>15.72265591454838</v>
       </c>
       <c r="K6" t="n">
-        <v>26.87252322575216</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>36.13342375236605</v>
+        <v>31.78561213073776</v>
       </c>
       <c r="M6" t="n">
-        <v>32.49398676858092</v>
+        <v>41.3150877826281</v>
       </c>
       <c r="N6" t="n">
-        <v>39.56133548384176</v>
+        <v>39.56133548384179</v>
       </c>
       <c r="O6" t="n">
-        <v>39.5945831389678</v>
+        <v>39.59458313896781</v>
       </c>
       <c r="P6" t="n">
-        <v>31.77814368913268</v>
+        <v>31.77814368913269</v>
       </c>
       <c r="Q6" t="n">
-        <v>21.24284748790751</v>
+        <v>21.24284748790752</v>
       </c>
       <c r="R6" t="n">
         <v>10.33238554971203</v>
       </c>
       <c r="S6" t="n">
-        <v>3.091102910640745</v>
+        <v>3.091102910640747</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6707729810811914</v>
+        <v>0.6707729810811918</v>
       </c>
       <c r="U6" t="n">
         <v>0.01094841644855047</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1395175254536594</v>
+        <v>0.1395175254536595</v>
       </c>
       <c r="H7" t="n">
-        <v>1.240437635397082</v>
+        <v>1.240437635397083</v>
       </c>
       <c r="I7" t="n">
-        <v>4.195672492733687</v>
+        <v>4.195672492733689</v>
       </c>
       <c r="J7" t="n">
-        <v>9.863889049573721</v>
+        <v>9.863889049573725</v>
       </c>
       <c r="K7" t="n">
         <v>16.20939977543425</v>
       </c>
       <c r="L7" t="n">
-        <v>20.7424510115377</v>
+        <v>20.74245101153771</v>
       </c>
       <c r="M7" t="n">
-        <v>21.87000628543136</v>
+        <v>21.87000628543137</v>
       </c>
       <c r="N7" t="n">
-        <v>21.34998641783137</v>
+        <v>21.34998641783138</v>
       </c>
       <c r="O7" t="n">
         <v>19.72016805230453</v>
       </c>
       <c r="P7" t="n">
-        <v>16.87401053304986</v>
+        <v>16.87401053304987</v>
       </c>
       <c r="Q7" t="n">
         <v>11.68269024503325</v>
       </c>
       <c r="R7" t="n">
-        <v>6.273215280852722</v>
+        <v>6.273215280852725</v>
       </c>
       <c r="S7" t="n">
-        <v>2.431409966315137</v>
+        <v>2.431409966315138</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5961203360292719</v>
+        <v>0.5961203360292722</v>
       </c>
       <c r="U7" t="n">
-        <v>0.007610046842926888</v>
+        <v>0.00761004684292689</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3330542291766307</v>
+        <v>0.3345225739218022</v>
       </c>
       <c r="H8" t="n">
-        <v>3.41089162455517</v>
+        <v>3.425929310176657</v>
       </c>
       <c r="I8" t="n">
-        <v>12.84007317033207</v>
+        <v>12.89668153112029</v>
       </c>
       <c r="J8" t="n">
-        <v>28.26756138358009</v>
+        <v>28.39218530839558</v>
       </c>
       <c r="K8" t="n">
-        <v>42.36574690462687</v>
+        <v>42.55252586250548</v>
       </c>
       <c r="L8" t="n">
-        <v>52.55845527079119</v>
+        <v>52.79017108416484</v>
       </c>
       <c r="M8" t="n">
-        <v>58.4814084189111</v>
+        <v>58.73923690814669</v>
       </c>
       <c r="N8" t="n">
-        <v>59.42769874755921</v>
+        <v>59.68969917130201</v>
       </c>
       <c r="O8" t="n">
-        <v>56.11589075618408</v>
+        <v>56.36329032686709</v>
       </c>
       <c r="P8" t="n">
-        <v>47.893614473386</v>
+        <v>48.10476428317259</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.96610989099791</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>20.92121772351655</v>
+        <v>21.01345363411543</v>
       </c>
       <c r="S8" t="n">
-        <v>7.58947324736248</v>
+        <v>7.622933153243075</v>
       </c>
       <c r="T8" t="n">
-        <v>1.457944888220702</v>
+        <v>1.46437256734269</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02664433833413045</v>
+        <v>0.02676180591374417</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1781997227146474</v>
+        <v>0.1789853564148587</v>
       </c>
       <c r="H9" t="n">
-        <v>1.721034164112516</v>
+        <v>1.728621731690873</v>
       </c>
       <c r="I9" t="n">
-        <v>6.135385189956063</v>
+        <v>6.162434420423865</v>
       </c>
       <c r="J9" t="n">
-        <v>16.83596590787816</v>
+        <v>16.91019106373891</v>
       </c>
       <c r="K9" t="n">
-        <v>28.77534732975953</v>
+        <v>28.90220994353445</v>
       </c>
       <c r="L9" t="n">
-        <v>38.69200558328343</v>
+        <v>38.86258802332273</v>
       </c>
       <c r="M9" t="n">
-        <v>45.15174553168938</v>
+        <v>45.35080719336135</v>
       </c>
       <c r="N9" t="n">
-        <v>44.85274117258605</v>
+        <v>45.20552289045678</v>
       </c>
       <c r="O9" t="n">
-        <v>35.88565376587235</v>
+        <v>42.58516942735456</v>
       </c>
       <c r="P9" t="n">
-        <v>34.02833126118561</v>
+        <v>27.87640023104675</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>11.06401436293224</v>
+        <v>11.1127925675822</v>
       </c>
       <c r="S9" t="n">
-        <v>3.309981691651453</v>
+        <v>3.324574493056694</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7182699349770215</v>
+        <v>0.721436590110768</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01172366596806891</v>
+        <v>0.01177535239571439</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1493966614073043</v>
+        <v>0.1500553103104151</v>
       </c>
       <c r="H10" t="n">
-        <v>1.32827213505767</v>
+        <v>1.334128122578055</v>
       </c>
       <c r="I10" t="n">
-        <v>4.492765053957844</v>
+        <v>4.512572422789574</v>
       </c>
       <c r="J10" t="n">
-        <v>10.56234396149642</v>
+        <v>10.60891043894634</v>
       </c>
       <c r="K10" t="n">
-        <v>17.35717575259408</v>
+        <v>17.43369877970094</v>
       </c>
       <c r="L10" t="n">
-        <v>22.21120909686414</v>
+        <v>22.3091322256048</v>
       </c>
       <c r="M10" t="n">
-        <v>23.41860575132862</v>
+        <v>23.52185196074987</v>
       </c>
       <c r="N10" t="n">
-        <v>22.8617636497196</v>
+        <v>22.96255489504744</v>
       </c>
       <c r="O10" t="n">
-        <v>21.1165390141888</v>
+        <v>21.20963604278485</v>
       </c>
       <c r="P10" t="n">
-        <v>18.06884712147978</v>
+        <v>18.14850771245237</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.50993316566073</v>
+        <v>12.5650860297203</v>
       </c>
       <c r="R10" t="n">
-        <v>6.717417157459336</v>
+        <v>6.747032407230114</v>
       </c>
       <c r="S10" t="n">
-        <v>2.603576362889112</v>
+        <v>2.615054816955141</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6383311896493911</v>
+        <v>0.6411454167808641</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00814890880403479</v>
+        <v>0.00818483510784083</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.220312284918847</v>
+        <v>2.219373299357745</v>
       </c>
       <c r="H17" t="n">
-        <v>22.73877318792515</v>
+        <v>22.72915680204752</v>
       </c>
       <c r="I17" t="n">
-        <v>85.59858936433396</v>
+        <v>85.56238912348955</v>
       </c>
       <c r="J17" t="n">
-        <v>188.4462297921312</v>
+        <v>188.3665345663646</v>
       </c>
       <c r="K17" t="n">
-        <v>282.4320488127461</v>
+        <v>282.312606328178</v>
       </c>
       <c r="L17" t="n">
-        <v>350.3819309023314</v>
+        <v>350.2337519383977</v>
       </c>
       <c r="M17" t="n">
-        <v>389.8674094992569</v>
+        <v>389.702531850851</v>
       </c>
       <c r="N17" t="n">
-        <v>396.1758717787826</v>
+        <v>396.0083262376512</v>
       </c>
       <c r="O17" t="n">
-        <v>374.0976414956208</v>
+        <v>373.9394329921626</v>
       </c>
       <c r="P17" t="n">
-        <v>319.2836819616867</v>
+        <v>319.1486546642682</v>
       </c>
       <c r="Q17" t="n">
-        <v>239.7687482580304</v>
+        <v>239.6673483810189</v>
       </c>
       <c r="R17" t="n">
-        <v>139.4716915675337</v>
+        <v>139.4127080157811</v>
       </c>
       <c r="S17" t="n">
-        <v>50.59536619258829</v>
+        <v>50.57396905911467</v>
       </c>
       <c r="T17" t="n">
-        <v>9.719417027232261</v>
+        <v>9.715306617938536</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1776249827935078</v>
+        <v>0.1775498639486196</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.187971804143137</v>
+        <v>1.187469402576176</v>
       </c>
       <c r="H18" t="n">
-        <v>11.47330663475083</v>
+        <v>11.46845449330149</v>
       </c>
       <c r="I18" t="n">
-        <v>40.90166080054223</v>
+        <v>40.88436320273237</v>
       </c>
       <c r="J18" t="n">
-        <v>112.2372834782777</v>
+        <v>112.1898175477781</v>
       </c>
       <c r="K18" t="n">
-        <v>191.8313943558679</v>
+        <v>191.7502675203819</v>
       </c>
       <c r="L18" t="n">
-        <v>257.9409831759036</v>
+        <v>257.8318981339193</v>
       </c>
       <c r="M18" t="n">
-        <v>301.0049610760922</v>
+        <v>300.8776639773055</v>
       </c>
       <c r="N18" t="n">
-        <v>308.9716667275609</v>
+        <v>308.8410004533537</v>
       </c>
       <c r="O18" t="n">
-        <v>282.6487125410209</v>
+        <v>282.52917842785</v>
       </c>
       <c r="P18" t="n">
-        <v>226.8505105648417</v>
+        <v>226.7545739007085</v>
       </c>
       <c r="Q18" t="n">
-        <v>151.6435587183415</v>
+        <v>151.579427599022</v>
       </c>
       <c r="R18" t="n">
-        <v>73.75845990986954</v>
+        <v>73.72726694240504</v>
       </c>
       <c r="S18" t="n">
-        <v>22.06605522169378</v>
+        <v>22.05672333293904</v>
       </c>
       <c r="T18" t="n">
-        <v>4.788360035120801</v>
+        <v>4.786335004243443</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07815603974625905</v>
+        <v>0.07812298701159054</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9959556540342952</v>
+        <v>0.9955344574373172</v>
       </c>
       <c r="H19" t="n">
-        <v>8.854951178595831</v>
+        <v>8.851206357942699</v>
       </c>
       <c r="I19" t="n">
-        <v>29.95110275950409</v>
+        <v>29.93843622911497</v>
       </c>
       <c r="J19" t="n">
-        <v>70.41406474022466</v>
+        <v>70.38428614081832</v>
       </c>
       <c r="K19" t="n">
-        <v>115.7119387141663</v>
+        <v>115.6630033277174</v>
       </c>
       <c r="L19" t="n">
-        <v>148.0714433279715</v>
+        <v>148.0088228811808</v>
       </c>
       <c r="M19" t="n">
-        <v>156.1205758410304</v>
+        <v>156.0545513599241</v>
       </c>
       <c r="N19" t="n">
-        <v>152.4083774941755</v>
+        <v>152.3439229276579</v>
       </c>
       <c r="O19" t="n">
-        <v>140.773804626593</v>
+        <v>140.7142704021401</v>
       </c>
       <c r="P19" t="n">
-        <v>120.4563092842933</v>
+        <v>120.4053674704187</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.39770481190813</v>
+        <v>83.36243534050118</v>
       </c>
       <c r="R19" t="n">
-        <v>44.78178786230566</v>
+        <v>44.76284933168154</v>
       </c>
       <c r="S19" t="n">
-        <v>17.35679080712494</v>
+        <v>17.3494504991576</v>
       </c>
       <c r="T19" t="n">
-        <v>4.25544688541926</v>
+        <v>4.253647227232173</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05432485385641617</v>
+        <v>0.054301879496581</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.220312284918847</v>
+        <v>2.219373299357745</v>
       </c>
       <c r="H20" t="n">
-        <v>22.73877318792515</v>
+        <v>22.72915680204752</v>
       </c>
       <c r="I20" t="n">
-        <v>85.59858936433396</v>
+        <v>85.56238912348955</v>
       </c>
       <c r="J20" t="n">
-        <v>188.4462297921312</v>
+        <v>188.3665345663646</v>
       </c>
       <c r="K20" t="n">
-        <v>282.4320488127461</v>
+        <v>282.312606328178</v>
       </c>
       <c r="L20" t="n">
-        <v>350.3819309023314</v>
+        <v>350.2337519383977</v>
       </c>
       <c r="M20" t="n">
-        <v>389.8674094992569</v>
+        <v>389.702531850851</v>
       </c>
       <c r="N20" t="n">
-        <v>396.1758717787826</v>
+        <v>396.0083262376512</v>
       </c>
       <c r="O20" t="n">
-        <v>374.0976414956208</v>
+        <v>373.9394329921626</v>
       </c>
       <c r="P20" t="n">
-        <v>319.2836819616867</v>
+        <v>319.1486546642682</v>
       </c>
       <c r="Q20" t="n">
-        <v>239.7687482580304</v>
+        <v>239.6673483810189</v>
       </c>
       <c r="R20" t="n">
-        <v>139.4716915675337</v>
+        <v>139.4127080157811</v>
       </c>
       <c r="S20" t="n">
-        <v>50.59536619258829</v>
+        <v>50.57396905911467</v>
       </c>
       <c r="T20" t="n">
-        <v>9.719417027232261</v>
+        <v>9.715306617938536</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1776249827935078</v>
+        <v>0.1775498639486196</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.187971804143137</v>
+        <v>1.187469402576176</v>
       </c>
       <c r="H21" t="n">
-        <v>11.47330663475083</v>
+        <v>11.46845449330149</v>
       </c>
       <c r="I21" t="n">
-        <v>40.90166080054223</v>
+        <v>40.88436320273237</v>
       </c>
       <c r="J21" t="n">
-        <v>112.2372834782777</v>
+        <v>112.1898175477781</v>
       </c>
       <c r="K21" t="n">
-        <v>191.8313943558679</v>
+        <v>191.7502675203819</v>
       </c>
       <c r="L21" t="n">
-        <v>257.9409831759036</v>
+        <v>257.8318981339193</v>
       </c>
       <c r="M21" t="n">
-        <v>301.0049610760922</v>
+        <v>300.8776639773055</v>
       </c>
       <c r="N21" t="n">
-        <v>308.9716667275609</v>
+        <v>308.8410004533537</v>
       </c>
       <c r="O21" t="n">
-        <v>282.6487125410209</v>
+        <v>282.52917842785</v>
       </c>
       <c r="P21" t="n">
-        <v>226.8505105648417</v>
+        <v>226.7545739007085</v>
       </c>
       <c r="Q21" t="n">
-        <v>151.6435587183415</v>
+        <v>151.579427599022</v>
       </c>
       <c r="R21" t="n">
-        <v>73.75845990986954</v>
+        <v>73.72726694240504</v>
       </c>
       <c r="S21" t="n">
-        <v>22.06605522169378</v>
+        <v>22.05672333293904</v>
       </c>
       <c r="T21" t="n">
-        <v>4.788360035120801</v>
+        <v>4.786335004243443</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07815603974625905</v>
+        <v>0.07812298701159054</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9959556540342952</v>
+        <v>0.9955344574373172</v>
       </c>
       <c r="H22" t="n">
-        <v>8.854951178595831</v>
+        <v>8.851206357942699</v>
       </c>
       <c r="I22" t="n">
-        <v>29.95110275950409</v>
+        <v>29.93843622911497</v>
       </c>
       <c r="J22" t="n">
-        <v>70.41406474022466</v>
+        <v>70.38428614081832</v>
       </c>
       <c r="K22" t="n">
-        <v>115.7119387141663</v>
+        <v>115.6630033277174</v>
       </c>
       <c r="L22" t="n">
-        <v>148.0714433279715</v>
+        <v>148.0088228811808</v>
       </c>
       <c r="M22" t="n">
-        <v>156.1205758410304</v>
+        <v>156.0545513599241</v>
       </c>
       <c r="N22" t="n">
-        <v>152.4083774941755</v>
+        <v>152.3439229276579</v>
       </c>
       <c r="O22" t="n">
-        <v>140.773804626593</v>
+        <v>140.7142704021401</v>
       </c>
       <c r="P22" t="n">
-        <v>120.4563092842933</v>
+        <v>120.4053674704187</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.39770481190813</v>
+        <v>83.36243534050118</v>
       </c>
       <c r="R22" t="n">
-        <v>44.78178786230566</v>
+        <v>44.76284933168154</v>
       </c>
       <c r="S22" t="n">
-        <v>17.35679080712494</v>
+        <v>17.3494504991576</v>
       </c>
       <c r="T22" t="n">
-        <v>4.25544688541926</v>
+        <v>4.253647227232173</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05432485385641617</v>
+        <v>0.054301879496581</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33997,7 +33997,7 @@
         <v>155.9354431879559</v>
       </c>
       <c r="R39" t="n">
-        <v>75.84600514598353</v>
+        <v>75.84600514598354</v>
       </c>
       <c r="S39" t="n">
         <v>22.69057867994065</v>
@@ -34453,7 +34453,7 @@
         <v>197.2606930954842</v>
       </c>
       <c r="L45" t="n">
-        <v>265.2413453483972</v>
+        <v>265.2413453483974</v>
       </c>
       <c r="M45" t="n">
         <v>309.5241393955542</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.799631206432579</v>
+        <v>3.799631206432593</v>
       </c>
       <c r="L2" t="n">
-        <v>10.77088587362579</v>
+        <v>10.77088587362581</v>
       </c>
       <c r="M2" t="n">
-        <v>17.18295210907281</v>
+        <v>17.18295210907283</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="O2" t="n">
-        <v>15.01416230587069</v>
+        <v>15.01416230587071</v>
       </c>
       <c r="P2" t="n">
-        <v>7.151197092855988</v>
+        <v>7.151197092856002</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.473289392418824</v>
+        <v>4.473289392418835</v>
       </c>
       <c r="L3" t="n">
-        <v>13.61833703813649</v>
+        <v>13.61833703813651</v>
       </c>
       <c r="M3" t="n">
-        <v>9.397206256252941</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="N3" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="O3" t="n">
-        <v>16.42269341674558</v>
+        <v>16.42269341674559</v>
       </c>
       <c r="P3" t="n">
-        <v>10.00730248430401</v>
+        <v>1.186201470256872</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6010854422309819</v>
+        <v>0.601085442230989</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.799631206432579</v>
+        <v>3.799631206432593</v>
       </c>
       <c r="L5" t="n">
-        <v>10.77088587362579</v>
+        <v>10.77088587362581</v>
       </c>
       <c r="M5" t="n">
-        <v>17.18295210907281</v>
+        <v>17.18295210907283</v>
       </c>
       <c r="N5" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="O5" t="n">
-        <v>15.01416230587069</v>
+        <v>15.01416230587071</v>
       </c>
       <c r="P5" t="n">
-        <v>7.151197092855988</v>
+        <v>7.151197092856002</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.473289392418824</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>13.61833703813649</v>
+        <v>9.2705254165082</v>
       </c>
       <c r="M6" t="n">
-        <v>9.397206256252941</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="N6" t="n">
-        <v>18.21830727030009</v>
+        <v>18.21830727030012</v>
       </c>
       <c r="O6" t="n">
-        <v>16.42269341674558</v>
+        <v>16.42269341674559</v>
       </c>
       <c r="P6" t="n">
-        <v>10.00730248430401</v>
+        <v>10.00730248430402</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35105,7 +35105,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6010854422309819</v>
+        <v>0.601085442230989</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.601146109817535</v>
+        <v>6.787925067696136</v>
       </c>
       <c r="L8" t="n">
-        <v>14.24641283816827</v>
+        <v>14.47812865154192</v>
       </c>
       <c r="M8" t="n">
-        <v>21.05014551947929</v>
+        <v>21.30797400871487</v>
       </c>
       <c r="N8" t="n">
-        <v>22.14807591311318</v>
+        <v>22.41007633685599</v>
       </c>
       <c r="O8" t="n">
-        <v>18.72493140015998</v>
+        <v>18.97233097084299</v>
       </c>
       <c r="P8" t="n">
-        <v>10.3182526631547</v>
+        <v>10.52940247294129</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.376113496426196</v>
+        <v>6.502976110201111</v>
       </c>
       <c r="L9" t="n">
-        <v>16.17691886905387</v>
+        <v>16.34750130909317</v>
       </c>
       <c r="M9" t="n">
-        <v>22.0549650193614</v>
+        <v>22.25402668103337</v>
       </c>
       <c r="N9" t="n">
-        <v>23.50971295904439</v>
+        <v>23.86249467691512</v>
       </c>
       <c r="O9" t="n">
-        <v>12.71376404365013</v>
+        <v>19.41327970513234</v>
       </c>
       <c r="P9" t="n">
-        <v>12.25749005635695</v>
+        <v>6.105559026218084</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,13 +35336,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2924492011629169</v>
+        <v>0.3903723299035775</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8431658598428022</v>
+        <v>0.9464120692640563</v>
       </c>
       <c r="N10" t="n">
-        <v>2.112862674119203</v>
+        <v>2.213653919447047</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>51.05068682037046</v>
+        <v>51.01448657952605</v>
       </c>
       <c r="J17" t="n">
-        <v>159.0262703065447</v>
+        <v>158.9465750807781</v>
       </c>
       <c r="K17" t="n">
-        <v>246.6674480179367</v>
+        <v>246.5480055333687</v>
       </c>
       <c r="L17" t="n">
-        <v>312.0698884697084</v>
+        <v>311.9217095057747</v>
       </c>
       <c r="M17" t="n">
-        <v>352.4361465998251</v>
+        <v>352.2712689514191</v>
       </c>
       <c r="N17" t="n">
-        <v>358.8962489443366</v>
+        <v>358.7287034032052</v>
       </c>
       <c r="O17" t="n">
-        <v>336.7066821395967</v>
+        <v>336.5484736361385</v>
       </c>
       <c r="P17" t="n">
-        <v>281.7083201514554</v>
+        <v>281.5732928540369</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.6440736534323</v>
+        <v>203.5426737764208</v>
       </c>
       <c r="R17" t="n">
-        <v>104.4390416727372</v>
+        <v>104.3800581209846</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>24.72927405054223</v>
+        <v>24.71197645273237</v>
       </c>
       <c r="J18" t="n">
-        <v>91.6261691449444</v>
+        <v>91.57870321444476</v>
       </c>
       <c r="K18" t="n">
-        <v>169.4321605225346</v>
+        <v>169.3510336870485</v>
       </c>
       <c r="L18" t="n">
-        <v>235.425896461674</v>
+        <v>235.3168114196897</v>
       </c>
       <c r="M18" t="n">
-        <v>277.9081805637642</v>
+        <v>277.7808834649775</v>
       </c>
       <c r="N18" t="n">
-        <v>287.6286385140193</v>
+        <v>287.497972239812</v>
       </c>
       <c r="O18" t="n">
-        <v>259.4768228187987</v>
+        <v>259.3572887056278</v>
       </c>
       <c r="P18" t="n">
-        <v>205.0796693600131</v>
+        <v>204.9837326958799</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.896520429363</v>
+        <v>128.8323893100435</v>
       </c>
       <c r="R18" t="n">
-        <v>50.0855405157254</v>
+        <v>50.05434754826089</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>49.7773087563228</v>
+        <v>49.74753015691645</v>
       </c>
       <c r="K19" t="n">
-        <v>94.74728426145427</v>
+        <v>94.69834887500537</v>
       </c>
       <c r="L19" t="n">
-        <v>126.1526834322703</v>
+        <v>126.0900629854796</v>
       </c>
       <c r="M19" t="n">
-        <v>133.5451359495446</v>
+        <v>133.4791114684383</v>
       </c>
       <c r="N19" t="n">
-        <v>131.6594765185751</v>
+        <v>131.5950219520576</v>
       </c>
       <c r="O19" t="n">
-        <v>118.2746171281685</v>
+        <v>118.2150829037157</v>
       </c>
       <c r="P19" t="n">
-        <v>98.07550862630677</v>
+        <v>98.02456681243225</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.77814204712318</v>
+        <v>58.74287257571623</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>51.05068682037046</v>
+        <v>51.01448657952605</v>
       </c>
       <c r="J20" t="n">
-        <v>159.0262703065447</v>
+        <v>158.9465750807781</v>
       </c>
       <c r="K20" t="n">
-        <v>246.6674480179367</v>
+        <v>246.5480055333687</v>
       </c>
       <c r="L20" t="n">
-        <v>312.0698884697084</v>
+        <v>311.9217095057747</v>
       </c>
       <c r="M20" t="n">
-        <v>352.4361465998251</v>
+        <v>352.2712689514191</v>
       </c>
       <c r="N20" t="n">
-        <v>358.8962489443366</v>
+        <v>358.7287034032052</v>
       </c>
       <c r="O20" t="n">
-        <v>336.7066821395967</v>
+        <v>336.5484736361385</v>
       </c>
       <c r="P20" t="n">
-        <v>281.7083201514554</v>
+        <v>281.5732928540369</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.6440736534323</v>
+        <v>203.5426737764208</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4390416727372</v>
+        <v>104.3800581209846</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>24.72927405054223</v>
+        <v>24.71197645273237</v>
       </c>
       <c r="J21" t="n">
-        <v>91.6261691449444</v>
+        <v>91.57870321444476</v>
       </c>
       <c r="K21" t="n">
-        <v>169.4321605225346</v>
+        <v>169.3510336870485</v>
       </c>
       <c r="L21" t="n">
-        <v>235.425896461674</v>
+        <v>235.3168114196897</v>
       </c>
       <c r="M21" t="n">
-        <v>277.9081805637642</v>
+        <v>277.7808834649775</v>
       </c>
       <c r="N21" t="n">
-        <v>287.6286385140193</v>
+        <v>287.497972239812</v>
       </c>
       <c r="O21" t="n">
-        <v>259.4768228187987</v>
+        <v>259.3572887056278</v>
       </c>
       <c r="P21" t="n">
-        <v>205.0796693600131</v>
+        <v>204.9837326958799</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.896520429363</v>
+        <v>128.8323893100435</v>
       </c>
       <c r="R21" t="n">
-        <v>50.0855405157254</v>
+        <v>50.05434754826089</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>49.7773087563228</v>
+        <v>49.74753015691645</v>
       </c>
       <c r="K22" t="n">
-        <v>94.74728426145427</v>
+        <v>94.69834887500537</v>
       </c>
       <c r="L22" t="n">
-        <v>126.1526834322703</v>
+        <v>126.0900629854796</v>
       </c>
       <c r="M22" t="n">
-        <v>133.5451359495446</v>
+        <v>133.4791114684383</v>
       </c>
       <c r="N22" t="n">
-        <v>131.6594765185751</v>
+        <v>131.5950219520576</v>
       </c>
       <c r="O22" t="n">
-        <v>118.2746171281685</v>
+        <v>118.2150829037157</v>
       </c>
       <c r="P22" t="n">
-        <v>98.07550862630677</v>
+        <v>98.02456681243225</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.77814204712318</v>
+        <v>58.74287257571623</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>133.1884048989774</v>
       </c>
       <c r="R39" t="n">
-        <v>52.17308575183938</v>
+        <v>52.17308575183939</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>174.8614592621509</v>
       </c>
       <c r="L45" t="n">
-        <v>242.7262586341677</v>
+        <v>242.7262586341678</v>
       </c>
       <c r="M45" t="n">
         <v>286.4273588832262</v>
